--- a/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
+++ b/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/OutputData/CCHF/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB41A52-FB12-8249-81D8-B9A5273146CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE3AAB1-A90D-F342-81AA-1594922D6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="500" windowWidth="37580" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="500" windowWidth="28880" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="345">
   <si>
     <t>RefID</t>
   </si>
@@ -62,15 +62,6 @@
     <t>Direct Submission</t>
   </si>
   <si>
-    <t>Akyildiz G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microbiology &amp; Immunology, University of Texas Medical Branch, 301 University Blvd, Galveston, TX 77555-610, USA</t>
-  </si>
-  <si>
-    <t>MN864495, MN864494</t>
-  </si>
-  <si>
     <t>Bayrakdar F., Yagci caglayik D.</t>
   </si>
   <si>
@@ -107,33 +98,6 @@
     <t>FJ472634</t>
   </si>
   <si>
-    <t>Ergunay C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Department of Medical Microbiology Virology Unit, Hacettepe University Faculty of Medicine, Morphology Building 3rd floor, Ankara 06420, Turkey</t>
-  </si>
-  <si>
-    <t>MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030</t>
-  </si>
-  <si>
-    <t>Febrer sendra B., Fernandez-soto P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parasitology Department, University of Salamanca, Campus Miguel de Unamuno Calle licenciado mendez, Salamanca, Salamanca 37007, Espana</t>
-  </si>
-  <si>
-    <t>OP889253</t>
-  </si>
-  <si>
-    <t>Fernandez de mera I., Chaligiannis I., Papa A., Ruiz fons F., Gortazar C., De la fuente J.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sanidad Animal, Instituto de Investigacion en Recursos Cinegeticos, Ronda de Toledo s/n, Ciudad Real, Ciudad Real 13071, Spain</t>
-  </si>
-  <si>
-    <t>KU365758, KU365757</t>
-  </si>
-  <si>
     <t>Immunocompetent Mouse Model for Crimean-Congo Hemorrhagic Fever Virus</t>
   </si>
   <si>
@@ -170,27 +134,6 @@
     <t>PP116320, PP116319, PP116318</t>
   </si>
   <si>
-    <t>Meissner J., Seregin S., Yakimenko N., Vyshemirski O., Seregin S., Netesov S., Petrov V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratory of Virology, State Research Center of Virology and Biotechnology 'VECTOR', Koltsovo, Novosibirsk 630559, Russia</t>
-  </si>
-  <si>
-    <t>AY720893, AY720893, AY675240, AY675240</t>
-  </si>
-  <si>
-    <t>NCBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Center for Biotechnology Information, NIH, Bethesda, MD 20894, USA</t>
-  </si>
-  <si>
-    <t>NC_005301, NC_005300</t>
-  </si>
-  <si>
-    <t>NC_005302</t>
-  </si>
-  <si>
     <t>Negredo A., Vazquez A., Hernandez L., Sanchez-seco M.</t>
   </si>
   <si>
@@ -200,42 +143,6 @@
     <t>MN689741, MN689740, MN689739</t>
   </si>
   <si>
-    <t>Ohlendorf V., Kopp A., Marklewitz M., Drosten C., Junglen S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Charite Universitatsmedizin Berlin, Institute of Virology, Chariteplatz 1, Berlin 10117, Germany</t>
-  </si>
-  <si>
-    <t>MK299346, MK299345, MK299344, MK299343, MK299342, MK299341, MK299340, MK299339, MK299338</t>
-  </si>
-  <si>
-    <t>Ozkul A., Mahzounieh M., Dincer E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virology Department, Ankara University, Faculty of Veterinary Medicine, Irfan Bastug Cad. Diskapi, Ankara, None 06110, Turkey</t>
-  </si>
-  <si>
-    <t>HM853682, HM853681, HM853680, HM853679</t>
-  </si>
-  <si>
-    <t>Ozkul A., Uyar Y., Korukluoglu G., Ayranci sucakli I., Dincer E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Department of Virology, Ankara University, Faculty of Veterinary Medicine, Irfan Bastug Cad. Diskapi, Ankara 06110, Turkey</t>
-  </si>
-  <si>
-    <t>GU084162, GU084161</t>
-  </si>
-  <si>
-    <t>Papa A., Kalvatchev N., Christova I.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dept. of Microbiology, Aristotle University of Thessaloniki, Medical School, Thessaloniki 54124, Greece</t>
-  </si>
-  <si>
-    <t>KJ000206</t>
-  </si>
-  <si>
     <t>Peng L., Hirsch S., Kocher G., Mehta M., Holbrook M.</t>
   </si>
   <si>
@@ -296,33 +203,6 @@
     <t>Sanchez-arroyo R., De ory F., Budino M., Garcinuno M., De la hoz C., Gutierrez A., Diez F.</t>
   </si>
   <si>
-    <t>Seregin S., Samokhvalov E., Petrova I., Vyshemirski O., Gutorov V., Tyunnikov G., Lvov D., Netesov S., Petrov V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry of Viruses, State Research Center of Virology and Biotechnology, Koltsovo, Novosibirsk 630559, Russia</t>
-  </si>
-  <si>
-    <t>AY179963, AY179961, AY179962</t>
-  </si>
-  <si>
-    <t>Shahid M., Yaqub T., Ali M., Ul-rahman A., Bente D.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Institute of Microbiology, University of Veterinary and Animal Sciences, Outfall Road, Lahore, Punjab 54600, Pakistan</t>
-  </si>
-  <si>
-    <t>MW915561, MW915560, MW915559, MW915558, MW915557, MW915556, MW915555, MW915554, MW915553, MW915552, MW915551, MW915550, MW915549, MW915548, MW915547, MW915546, MW915545, MW915544, MW915543, MW915542, MW915541</t>
-  </si>
-  <si>
-    <t>Tumanova I., Seregin S., Vyshemirski O., Petrova I., Tyunnikov G., Gutorov V., Seregin S., Netesov S., Petrov V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biochemistry of Viruses, State Research Center of Virology and Biotechnology 'Vector', Koltsovo, Novosibirsk 630559, Russia</t>
-  </si>
-  <si>
-    <t>AY049083, AY297691, AY297692</t>
-  </si>
-  <si>
     <t>Wang J., Wang B., Xia X., Zhou J., Wang Y., Wang Y.</t>
   </si>
   <si>
@@ -779,15 +659,6 @@
     <t>OQ357265, OQ357266, OQ357267, OQ357268, OQ357269, OQ357270, OQ357271, OQ357272</t>
   </si>
   <si>
-    <t>Aktas M., Altay K., Aydin K., Koksal I., Ozdarendeli A., Tonbak S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virology, Firat University, Veterinary Medicine, Elazig 23119, Turkey</t>
-  </si>
-  <si>
-    <t>EF189740, EF189741, EF189742, EF189743, EF189744, EF189745, EF189746, EF189747, EF189748, EF189749, EF189750, EF189751, EF189752, EF189753</t>
-  </si>
-  <si>
     <t>Genetic analysis of s gene of cchfv in humans in turkey</t>
   </si>
   <si>
@@ -803,18 +674,6 @@
     <t>EF432639, EF432640, EF432641, EF432642, EF432643, EF432644, EF432645, EF432646, EF432647, EF432648, EF432649, EF432650, EF432651, EF432652, EF432653</t>
   </si>
   <si>
-    <t>Antoniadis A., Papa A., Papadimitriou E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dept. of Microbiology, Medical School, Aristotle University of Thessaloniki, Thessaloniki 54124, Greece</t>
-  </si>
-  <si>
-    <t>2008, 2013</t>
-  </si>
-  <si>
-    <t>EU871766</t>
-  </si>
-  <si>
     <t>Ap92 sequencing</t>
   </si>
   <si>
@@ -1077,21 +936,6 @@
   </si>
   <si>
     <t>KX096700, KX096701, KX096702, KX096703, KX096704, KX096705, KX096706, KX129730, KX129731, KX129732, KX129733, KX129734, KX129735, KX129736, KX129737, KX129738, KX129739, KX458183</t>
-  </si>
-  <si>
-    <t>Genetic diveregence of cchfv in albania, Genetic divergence of cchfv in albania</t>
-  </si>
-  <si>
-    <t>Bino S., Kota M., Papa A., Papadimitriou E., Tomini E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A' Dept. of Microbiology, Aristotle University of Thessaloniki, Medical School, Thessaloniki 54124, Greece, Unpublished</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>KC846093, KC846094</t>
   </si>
   <si>
     <t>An iran-kerman22 related strain of crimean-congo hemorrhagic fever orthonairovirus, Crimean-ongo haemorrhagic fever among healthcare workers in iran 2000-2018, a report of national reference laboratory</t>
@@ -1596,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1630,9 +1474,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1644,18 +1488,18 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1667,18 +1511,18 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1690,41 +1534,35 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5">
-        <v>2019</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1732,39 +1570,45 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>33416494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2019</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1782,12 +1626,12 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1799,64 +1643,64 @@
         <v>30</v>
       </c>
       <c r="E9">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9">
-        <v>28736753</v>
+      <c r="G9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10">
+        <v>2019</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10">
-        <v>2021</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10">
-        <v>33416494</v>
+      <c r="G10" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>2024</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11">
-        <v>2020</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="G11" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1868,18 +1712,18 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1891,18 +1735,18 @@
         <v>42</v>
       </c>
       <c r="E13">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1914,18 +1758,18 @@
         <v>45</v>
       </c>
       <c r="E14">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G14">
-        <v>16195783</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1937,1989 +1781,1602 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <v>2003</v>
+        <v>2024</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E16">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17">
-        <v>2019</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18">
-        <v>33084573</v>
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>22925023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20">
-        <v>2009</v>
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>38446223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21">
-        <v>2013</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21">
-        <v>25420643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22">
-        <v>2024</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23">
-        <v>2023</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24">
-        <v>2023</v>
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25">
-        <v>2013</v>
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26">
-        <v>2024</v>
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27">
-        <v>2022</v>
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29">
-        <v>2002</v>
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29">
-        <v>14976418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30">
-        <v>2021</v>
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31">
-        <v>2007</v>
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G31">
-        <v>12692285</v>
+        <v>27926935</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32">
-        <v>2023</v>
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33">
-        <v>2005</v>
+        <v>121</v>
+      </c>
+      <c r="E33" t="s">
+        <v>122</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="G33">
+        <v>19523314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35">
+        <v>33142046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>106</v>
       </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>108</v>
       </c>
-      <c r="E35" t="s">
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>109</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>110</v>
       </c>
-      <c r="G35">
-        <v>38446223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>62</v>
-      </c>
-      <c r="B37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>67</v>
-      </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" t="s">
-        <v>396</v>
+        <v>157</v>
+      </c>
+      <c r="G41">
+        <v>25108534</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" t="s">
-        <v>396</v>
+        <v>166</v>
+      </c>
+      <c r="G43">
+        <v>31211933</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G45">
-        <v>27926935</v>
+        <v>176</v>
+      </c>
+      <c r="G45" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G47">
-        <v>19523314</v>
+        <v>32738065</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49">
-        <v>33142046</v>
+        <v>193</v>
+      </c>
+      <c r="G49" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G51" t="s">
-        <v>396</v>
+        <v>202</v>
+      </c>
+      <c r="G51">
+        <v>39238565</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G52" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="G52">
+        <v>37766297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="E53" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G55">
-        <v>25108534</v>
+        <v>219</v>
+      </c>
+      <c r="G55" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G56" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G57">
-        <v>31211933</v>
+        <v>229</v>
+      </c>
+      <c r="G57" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G59" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G60" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G61">
-        <v>32738065</v>
+        <v>247</v>
+      </c>
+      <c r="G61" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G62" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E63" t="s">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="G63" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G64" t="s">
-        <v>396</v>
+        <v>258</v>
+      </c>
+      <c r="G64">
+        <v>33672497</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G65">
-        <v>39238565</v>
+        <v>262</v>
+      </c>
+      <c r="G65" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>266</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G66">
-        <v>37766297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="G66" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B67" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E67" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G67" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>166</v>
+      </c>
+      <c r="B68" t="s">
         <v>7</v>
       </c>
-      <c r="C67" t="s">
-        <v>247</v>
-      </c>
-      <c r="D67" t="s">
-        <v>248</v>
-      </c>
-      <c r="E67" t="s">
-        <v>183</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G67">
-        <v>17955162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>132</v>
-      </c>
-      <c r="B68" t="s">
-        <v>250</v>
-      </c>
       <c r="C68" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G68" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="G68">
+        <v>35531170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="365" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" t="s">
+        <v>280</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G69" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>173</v>
+      </c>
+      <c r="B70" t="s">
         <v>7</v>
       </c>
-      <c r="C69" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" t="s">
-        <v>257</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G69">
-        <v>19845692</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>142</v>
-      </c>
-      <c r="B70" t="s">
-        <v>259</v>
-      </c>
       <c r="C70" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="D70" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G70" t="s">
-        <v>396</v>
+        <v>284</v>
+      </c>
+      <c r="G70">
+        <v>19553586</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G71" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D72" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="G72" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="D73" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="G73" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="G74" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="G75" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="B76" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="C76" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="G76" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
-        <v>290</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D77" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="G77" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="C78" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E78" t="s">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G78" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="C79" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D79" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="E79" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="G79" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C80" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D80" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="E80" t="s">
-        <v>123</v>
+        <v>324</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="G80">
-        <v>33672497</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="G80" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="G81" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E82" t="s">
-        <v>313</v>
+        <v>64</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="G82" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="B83" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D83" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E83" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="G83" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="D84" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="E84" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G84">
-        <v>35531170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="365" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>170</v>
-      </c>
-      <c r="B85" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" t="s">
-        <v>325</v>
-      </c>
-      <c r="D85" t="s">
-        <v>326</v>
-      </c>
-      <c r="E85" t="s">
-        <v>327</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G85" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>173</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>329</v>
-      </c>
-      <c r="D86" t="s">
-        <v>330</v>
-      </c>
-      <c r="E86" t="s">
-        <v>162</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G86">
-        <v>19553586</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>174</v>
-      </c>
-      <c r="B87" t="s">
-        <v>332</v>
-      </c>
-      <c r="C87" t="s">
-        <v>333</v>
-      </c>
-      <c r="D87" t="s">
-        <v>334</v>
-      </c>
-      <c r="E87" t="s">
-        <v>144</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G87" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>177</v>
-      </c>
-      <c r="B88" t="s">
-        <v>336</v>
-      </c>
-      <c r="C88" t="s">
-        <v>337</v>
-      </c>
-      <c r="D88" t="s">
-        <v>338</v>
-      </c>
-      <c r="E88" t="s">
-        <v>293</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G88" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>180</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>340</v>
-      </c>
-      <c r="D89" t="s">
-        <v>341</v>
-      </c>
-      <c r="E89" t="s">
-        <v>342</v>
-      </c>
-      <c r="F89" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G89" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>182</v>
-      </c>
-      <c r="B90" t="s">
-        <v>344</v>
-      </c>
-      <c r="C90" t="s">
-        <v>345</v>
-      </c>
-      <c r="D90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G90" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>185</v>
-      </c>
-      <c r="B91" t="s">
-        <v>347</v>
-      </c>
-      <c r="C91" t="s">
-        <v>348</v>
-      </c>
-      <c r="D91" t="s">
-        <v>349</v>
-      </c>
-      <c r="E91" t="s">
-        <v>350</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G91" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>186</v>
-      </c>
-      <c r="B92" t="s">
-        <v>352</v>
-      </c>
-      <c r="C92" t="s">
-        <v>353</v>
-      </c>
-      <c r="D92" t="s">
-        <v>354</v>
-      </c>
-      <c r="E92" t="s">
-        <v>128</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G92" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>188</v>
-      </c>
-      <c r="B93" t="s">
-        <v>356</v>
-      </c>
-      <c r="C93" t="s">
-        <v>357</v>
-      </c>
-      <c r="D93" t="s">
-        <v>358</v>
-      </c>
-      <c r="E93" t="s">
-        <v>359</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G93" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>190</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
-        <v>361</v>
-      </c>
-      <c r="D94" t="s">
-        <v>362</v>
-      </c>
-      <c r="E94" t="s">
-        <v>363</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G94" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>191</v>
-      </c>
-      <c r="B95" t="s">
-        <v>365</v>
-      </c>
-      <c r="C95" t="s">
-        <v>366</v>
-      </c>
-      <c r="D95" t="s">
-        <v>367</v>
-      </c>
-      <c r="E95" t="s">
-        <v>275</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G95" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="112" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>192</v>
-      </c>
-      <c r="B96" t="s">
-        <v>369</v>
-      </c>
-      <c r="C96" t="s">
-        <v>370</v>
-      </c>
-      <c r="D96" t="s">
-        <v>371</v>
-      </c>
-      <c r="E96" t="s">
-        <v>237</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G96" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>194</v>
-      </c>
-      <c r="B97" t="s">
-        <v>373</v>
-      </c>
-      <c r="C97" t="s">
-        <v>374</v>
-      </c>
-      <c r="D97" t="s">
-        <v>375</v>
-      </c>
-      <c r="E97" t="s">
-        <v>376</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G97" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>195</v>
-      </c>
-      <c r="B98" t="s">
-        <v>378</v>
-      </c>
-      <c r="C98" t="s">
-        <v>379</v>
-      </c>
-      <c r="D98" t="s">
-        <v>380</v>
-      </c>
-      <c r="E98" t="s">
-        <v>381</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G98" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>197</v>
-      </c>
-      <c r="B99" t="s">
-        <v>383</v>
-      </c>
-      <c r="C99" t="s">
-        <v>384</v>
-      </c>
-      <c r="D99" t="s">
-        <v>385</v>
-      </c>
-      <c r="E99" t="s">
-        <v>104</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G99" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>204</v>
-      </c>
-      <c r="B100" t="s">
-        <v>387</v>
-      </c>
-      <c r="C100" t="s">
-        <v>388</v>
-      </c>
-      <c r="D100" t="s">
-        <v>389</v>
-      </c>
-      <c r="E100" t="s">
-        <v>390</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G100" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="128" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>208</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>392</v>
-      </c>
-      <c r="D101" t="s">
-        <v>393</v>
-      </c>
-      <c r="E101" t="s">
-        <v>394</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G101" t="s">
-        <v>396</v>
+      <c r="G84" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G84" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G84">
+      <sortCondition ref="A1:A84"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
+++ b/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE3AAB1-A90D-F342-81AA-1594922D6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4460EE98-F010-EC4C-A9AA-B7C4DE7F9746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="500" windowWidth="28880" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>Genotypes of the congo-crimean hemorrhagic fever virus occurring in the turkestan region</t>
   </si>
   <si>
-    <t>Abuova G., Aliyev D., Berdaliyeva F., Karan L., Nurmagambet S., Polukchi T., Pshenichnaya N., Sadyhova D.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of molecular diagnostic and epidemiology, Central Research Institute of Epidemiology, Novogireevskaya 3A, Moscow 111123, Russia, Arch Clin Infect Dis 17 (6), e129126 (2022)</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>Molecular identification of crimean-congo haemorrhagic fever virus in livestock ticks in the upper east region of ghana</t>
   </si>
   <si>
-    <t>Addo S., Agbodzi B., Ansah-owusu J., Asoala V., Baako B., Baidoo P., Bentil R., Diclaro J., Dunford J., Kumordjie S., Larbi J., Tawiah-mensah C., Wilson M., Yartey K., Yeboah C.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> NAMRU-3, University of Ghana Noguchi Memorial Institute for Medical Research, P O Box LG 581, University of Ghana-Legon, Accra, Legon +233, Ghana, Unpublished</t>
   </si>
   <si>
@@ -254,9 +248,6 @@
     <t>Collection and screening for cchfv of hyalomma marginatum questing unfed adults in thrace, turkey</t>
   </si>
   <si>
-    <t>Akyildiz G., Bircan R., Kar S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Biology, Namik Kemal University, Degirmenalti Campus, Tekirdag, Suleymanpasa 59100, Turkey, Unpublished</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
     <t>Emerging viruses are an underestimated cause of undiagnosed febrile illness in uganda</t>
   </si>
   <si>
-    <t>Ashraf S., Balinandi S., Bugembe D., Bukenya H., Bwogi J., Byaruhanga T., Da silva filipe A., Davis C., Downing R., Jerome H., Kaleebu P., Kayiwa J., Kigozi B., Logan N., Lutwama J., Mcconnell W., Namuwulya P., Salazar M., Salazar-gonzalez J., Shepherd J., Sreenu V., Ssekagiri A., Ssemwanga D., Thomson E., Wilkie G., Willett B.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MRC Centre for Virus Research, University of Glasgow, 464 Bearsden Road, Glasgow G61 1QH, United Kingdom, Unpublished</t>
   </si>
   <si>
@@ -281,9 +269,6 @@
     <t>OQ077991</t>
   </si>
   <si>
-    <t>Ashraf S., Burton C., Carmichael S., Filipe A., Love H., Richards K., Roddy S., Smollett K., Summers S., Thomson E., Tong L.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> MRC Centre for Virus Research, University of Glasgow, 464 Bearsden Road, Glasgow G61 1QH, United Kingdom,  MRC Centre for Virus Research, University of Glasgow, 464 Bearsden road, Glasgow G61 1QH, United Kingdom</t>
   </si>
   <si>
@@ -296,9 +281,6 @@
     <t>Human cases of cchfv in oman 2012-2014</t>
   </si>
   <si>
-    <t>Al-abaidani I., Al-abri S., Al-jardani A., Al-kindi H., Al-maani A., Al-mahrooqi S., Al-rawahi B., Almahrouqi S., Atkinson B., Bawakir S., Beeching N., Hewson R.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Research, Public Health England, Manor Farm Road, Salisbury, Wiltshire SP4 0JG, UK, Unpublished</t>
   </si>
   <si>
@@ -311,9 +293,6 @@
     <t>Crimean-congo hemorrhagic fever in uganda 2013-2019</t>
   </si>
   <si>
-    <t>Almberg M., Balinandi S., Klena J., Kyondo J., Lutwama J., Mugisha L., Mulei S., Nyakarahuka L., Shoemaker T., Tumusiime A., Whitmer S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> VSPB, CDC, 1600 Clifton Rd. NE, Atlanta, GA 30333, USA, Unpublished</t>
   </si>
   <si>
@@ -323,9 +302,6 @@
     <t>Whole genome sequencing of crimean-congo hemorrhagic fever orthonairovirus in iran</t>
   </si>
   <si>
-    <t>Azadmanesh K., Baniasadi V., Fazlalipour M., Fereydouni Z., Jalali T., Mohammadi T., Pouriayevali M., Qaedi H., Salehi-vaziri M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Arboviruses and Viral Hemorrhagic Fevers Department (National Ref Lab), Pasteur Institute of Iran, No 69, Pasteur Ave, Tehran, Tehran 1316943551, Iran, Unpublished</t>
   </si>
   <si>
@@ -335,18 +311,12 @@
     <t>First whole genome isolation of crimean-congo haemorrhagic fever virus (cchfv) in tick species within ghana</t>
   </si>
   <si>
-    <t>Addo S., Agbodzi B., Ampadu R., Asoala V., Baako B., Behene E., Bentil R., Dadzie S., Diclaro J., Fox A., Harwood J., Kumordjie S., Letizia A., Mingle D., Mosore M., Nimo-paintsil S., Nyarko E., Oduro D., Tagoe J., Yeboah C.</t>
-  </si>
-  <si>
     <t>OQ441063, OQ441064, OQ441065</t>
   </si>
   <si>
     <t>Orthonairovirus haemorrhagiae in north macedonia, 2023</t>
   </si>
   <si>
-    <t>Bosevska G., Cadar D., Emmerich P., Osmani D., Toth E., Von possel R.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virus Genomics and Evolution, Bernhard Nocht Institute for Tropical Medicine, Bernhard-Nocht-Strasse 74, Hamburg, Deutschland 20359, Deutschland, Unpublished</t>
   </si>
   <si>
@@ -359,9 +329,6 @@
     <t>Severe undifferentiated febrile illness outbreaks in the federal republic of sudan: a retrospective epidemiological &amp; diagnostic cohort study</t>
   </si>
   <si>
-    <t>Alzain M., Atkinson B., Bausch D., Beeching N., Bower H., Brooks T., Carter D., Dowall S., El halawi A., El karsany M., Eldegail M., Fletcher T., Furneaux J., Gannon B., Graham V., Hewson R., Mahmoud I., Mellors J., Mohamed R., Mohamednour S., Osborne J., Osman A., Pullan S., Semper A., Slack G., Taha R., Whitworth J.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Genomics of Rare and Emerging Human Pathogens, Public Health England, Manor Farm Road, Porton Down, Wiltshire SP4 0JG, United Kingdom, Unpublished</t>
   </si>
   <si>
@@ -371,9 +338,6 @@
     <t>Serological and virological evidence of crimean-congo haemorrhagic fever virus circulation in the human population of borno state, northeastern nigeria</t>
   </si>
   <si>
-    <t>Atkinson B., Baba S., Bell A., Bosworth A., Bukbuk D., Dowall S., Hewson R., Lewandowski K., Varghese A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Research and Technical Services, Public Health England, Manor Farm Road, Porton, Wiltshire SP4 0JG, UK, Unpublished</t>
   </si>
   <si>
@@ -386,9 +350,6 @@
     <t>Prevalence of crimean congo hemorrhagic fever virus (cchfv) in ixodid ticks in a hyper endemic region in turkey</t>
   </si>
   <si>
-    <t>Bursali A., Dundar E., Ekici M., Mutluay N., Ozkan M., Tekin S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biology Department, Balikesir Universitey, Balikesir Universitesi FEF Biyoloji, Balikesir 10145, Turkiye, Unpublished</t>
   </si>
   <si>
@@ -398,9 +359,6 @@
     <t>GU324989, GU324990, GU324991, GU324992, GU324993, GU324994</t>
   </si>
   <si>
-    <t>Bordi L., Capobianchi M., Carletti F., Castilletti C., Chiappini R., Di caro A., Ippolito G., Lalle E.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biorepository, National Institute for Infectious Diseases, Via Portuense 292, Rome, RM 00149, Italy,  Virology, Laboratory, Via Portuense 292, Rome 00149, Italy</t>
   </si>
   <si>
@@ -410,9 +368,6 @@
     <t>FJ445749, FJ472634</t>
   </si>
   <si>
-    <t>Bouzari S., Chinikar S., Jalali T., Mostafavi E., Shah-hosseini N., Shokrgozar M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Arboviruses and Viral Haemorrhagic Fevers Laboratory (National Ref. Lab), Pasteur Institute of Iran, 69 Pasteur Ave, Tehran, Tehran 1316943551, Iran</t>
   </si>
   <si>
@@ -425,9 +380,6 @@
     <t>Tick-borne arbovirus and rickettsiae surveillance at livestock markets and slaughterhouses in western kenya: implications for dissemination and human infection</t>
   </si>
   <si>
-    <t>Bastos A., Chiuya T., Fevre E., Masiga D.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mbbu, ICIPE, ICIPE Road, Nairobi 00100, Kenya, Unpublished</t>
   </si>
   <si>
@@ -437,9 +389,6 @@
     <t>Identification and phylogenetic analysis of the latest isolated crimean-congohemorrhagic fever virus in xinjiang, china</t>
   </si>
   <si>
-    <t>Deng F., Guo R., Liu D., Liu J., Shen S., Shi J., Su Z., Wang Q., Yang J., Zhang Y.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Wuhan Institute of Virology, China Academy of Science, Xiaohongshan District No. 44, Wuhan, Hubei 430071, China, Unpublished</t>
   </si>
   <si>
@@ -449,9 +398,6 @@
     <t>Genetic diversity of crimean-congo hemorraghic fever virus in russia</t>
   </si>
   <si>
-    <t>Butenko A., Gmyl A., Gordeychuk I., Isaeva O., Klimentov A., Larichev V.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chumakov Institute of Poliomyelitis and Viral Encephalitides, 27 km Kievskogo shosse, Moscow 142782, Russia, Unpublished</t>
   </si>
   <si>
@@ -461,9 +407,6 @@
     <t>Genetic characterization of the s and m segments of crimean congo hemorrhagic fever virus strains isolated in iran</t>
   </si>
   <si>
-    <t>Chinikar S., Li Q., Lundkvist K., Nilsson M., Nordstrom H., Plyusnin A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Centre for Microbiological Preparedness, Swedish Institute for Infectious Disease Control, Nobelsvag 18, Solna 171 82, Sweden, Unpublished</t>
   </si>
   <si>
@@ -485,9 +428,6 @@
     <t>Identification of diverse viruses in upper respiratory samples in dromedary camels from united arab emirates</t>
   </si>
   <si>
-    <t>Al hammadi Z., Al hosani F., Al muhairi S., Eltahir Y., Gerber S., Hall A., Khalafalla A., Li Y., Paden C., Queen K., Tao Y., Tong S., Yusof M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Division of Viral Diseases, Centers for Disease Control and Prevention, 1600 Clifton Rd, Atlanta, GA 30333, USA, Unpublished</t>
   </si>
   <si>
@@ -500,9 +440,6 @@
     <t>Detection of a non-fatal case of crimean-congo haemorrhagic fever imported into the uk (ex bulgaria), june 2014</t>
   </si>
   <si>
-    <t>Aarons E., Atkinson B., Brooks T., Dowall S., Glover S., Hewson R., Lumley S., Nijjar M., Petridou C., Simpson A., Staplehurst S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Research, Public Health England, Porton Down, Salisbury, Wilts SP40JG, UK, Unpublished</t>
   </si>
   <si>
@@ -515,9 +452,6 @@
     <t>Molecular phylogenetic study on s-segment of crimean-congo hemorrhagic fever (cchf) virus genome isolated from ticks in in west azerbaiajan and sistan and baluchestan provinces, iran, 2010</t>
   </si>
   <si>
-    <t>Ghalyanchi langrodi A., Langeroudi A., Majidzadeh K., Morovvati A., Razmyar J., Soleimani M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Tasnim Biotechnology Research Center, AJA University of Medical Science, West Fatemi St, Tehran, Tehran 1411718541, Iran, Int. J. Infect. Dis. 16, E258 (2012)</t>
   </si>
   <si>
@@ -530,9 +464,6 @@
     <t>First detection of crimean-congo haemorrhagic fever virus in tick from migratory birds in italy</t>
   </si>
   <si>
-    <t>D'alessio S., Di domenico M., Di luca M., Goffredo M., Mancini G., Mancuso E., Marcacci M., Monaco F., Orsini M., Polci A., Spina F., Toma L.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Viral, Foreign Deseases of Animals, Istituto Zooprofilattico Sperimentale dell'Abruzzo e del Molise 'G. Caporale', Via Campo Boario, Teramo, Abruzzo 64100, Italy, Unpublished</t>
   </si>
   <si>
@@ -542,9 +473,6 @@
     <t>Genetic variation in the nucleoprotein gene of crimean-congo haemorrhagic fever virus</t>
   </si>
   <si>
-    <t>Berthet F., Marriott A., Nuttall P., Zeller H.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Marriott A.C., NERC Institute of Virology &amp; Environmental Microbiology, Mansfield Road, Oxford, OX1 3SR, United Kingdom, Unpublished</t>
   </si>
   <si>
@@ -557,9 +485,6 @@
     <t>Crimean congo hemorrhagic fever virus s segment sequence, strain matin</t>
   </si>
   <si>
-    <t>Hazlett L., Meissner J., Nichol S., Sato S., St. jeor S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Microbiology, University of Nevada, Reno, MS200/FA310, Reno, NV 89557, USA, Unpublished</t>
   </si>
   <si>
@@ -572,9 +497,6 @@
     <t>Cchf in ardabil</t>
   </si>
   <si>
-    <t>Habibzadeh S., Jeddi F., Mirzanejad-asl H., Mohammadi-ghalehbin B., Mohammadshahi J., Molaei S., Peeri doghaheh H., Soozangar N., Spotin A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Parasitolgy and Mycology, Tabriz University od Medical Sceinces, Golgasht Ave, Tabriz, Iran, Tabriz, East Azerbijan 5166/15731, Iran, Unpublished</t>
   </si>
   <si>
@@ -584,9 +506,6 @@
     <t>Detection of new crimean-congo hemorrhagic fever virus genotypes in ticks feeding on deer and wild boar, spain</t>
   </si>
   <si>
-    <t>Calero-bernal R., De la fuente J., Fernandez de mera I., Gortazar C., Habela M., Moraga fernandez A., Royo-hernandez L., Ruiz fons F.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sanidad Animal, Instituto de Investigacion en Recursos Cinegeticos, Ronda de Toledo s/n, Ciudad Real 13071, Spain, Lancet (2019) In press</t>
   </si>
   <si>
@@ -599,9 +518,6 @@
     <t>Health risks associated with argasid ticks, transmitted pathogens and blood parasites in european griffon vulture (gyps fulvus) nestlings in spain</t>
   </si>
   <si>
-    <t>De la fuente J., Fernandez de mera I., Margalida A., Martinez J., Moraga-fernandez A., Munoz-hernandez C., Oliva-vidal P., Sanchez-sanchez M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Science and Agroforestal Technology and Genetics, Institute for Game and Wildlife Research, Ronda Toledo 12, Ciudad Real, Ciudad Real 13005, Spain, Unpublished</t>
   </si>
   <si>
@@ -611,9 +527,6 @@
     <t>Survey of crimean-congo hemorrhagic fever enzootic focus, spain, 2011-2015</t>
   </si>
   <si>
-    <t>Calero-bernal R., Estrada-pena A., Habela M., Labiod N., Lasala F., Lopez P., Negredo A., Ramirez de arellano E., Sanchez-seco P., Sarria A., Tenorio A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Arbovirus and Imported Viral Diseases, National Center of Microbiology, Institute of Health Carlos III, Ctra. Majadahonda-Pozuelo, km2, Majadahonda, Madrid 28220, Spain, Emerging Infect. Dis. 25 (6) (2019) In press</t>
   </si>
   <si>
@@ -623,9 +536,6 @@
     <t>Occurrence of the neglected arboviruses in the astrakhan region of russia for 2018 season: the development of multiplex pcr assays and analysis of mosquitoes, ticks, and human blood sera</t>
   </si>
   <si>
-    <t>Akishkin V., Arjba T., Azarian A., Babaeva M., Bashkina O., Butenko A., Gintsburg A., Gushchin V., Kozlova A., Kuznetsova N., Larichev V., Nikeshina N., Nikiforova M., Rubalsky O., Shchetinin A., Tkachuk A., Vakalova E.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pathogenic Microorganisms Variability Lab, N.F. Gamaleya Research Center of Epidemiology and Microbiology, Gamaleya str., 16, Moscow 123098, Russia, Unpublished</t>
   </si>
   <si>
@@ -638,9 +548,6 @@
     <t>Outcome of the entomological monitoring for the crimean-congo haemorrhagic fever virus in the western and southern regions of kazakhstan in 2021-2022</t>
   </si>
   <si>
-    <t>Nurmakhanov T., Sadovskaya V., Shevtsov A., Tokmurziyeva G., Tukhanova N., Turebekov N.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Laboratory of applied genetics, National center for biotechnology, Kazakhstan, Kurgalzhynskoye road, 13/5, Astana, Akmola Region 010000, Kazakhstan, Unpublished</t>
   </si>
   <si>
@@ -650,9 +557,6 @@
     <t>Transmission dynamics of crimean congo haemorrhagic fever virus (cchfv); evidence of circulation in humans, livestock, and rodents in diverse ecologies in kenya</t>
   </si>
   <si>
-    <t>Junglen S., Kopp A., Ogola E., Omoga D., Osalla J., Sang R., Slothouwer I., Tchouassi D., Torto B., Venter M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Human Health, ICIPE, ICIPE Road, off Kasarani Road, Nairobi 00100, Kenya, Unpublished</t>
   </si>
   <si>
@@ -662,9 +566,6 @@
     <t>Genetic analysis of s gene of cchfv in humans in turkey</t>
   </si>
   <si>
-    <t>Aydin K., Koksal I., Ozdarendeli A., Tonbak S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology, Firat University, Firat, Elazig 23119, Turkey, Unpublished</t>
   </si>
   <si>
@@ -686,9 +587,6 @@
     <t>LT673890</t>
   </si>
   <si>
-    <t>Glass P., Jennings G., Lofts R., Miller M., Parker M., Schoepp R., Smith J., Spik K.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Michael D. Parker, Virology Divison, USAMRIID, Bldg. 1425 Fort Detrick, Frederick, MD 21702, USA</t>
   </si>
   <si>
@@ -701,9 +599,6 @@
     <t>Cchf virus, isolated from ticks in tajikistan</t>
   </si>
   <si>
-    <t>Chausov E., Kononova Y., Petrova I., Shestopalov A., Tishkova F.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Microscopic Researches, State Research Center of Virology and Biotechnology 'Vector', Koltsovo, Novosibirsk Region 630559, Russia, Unpublished</t>
   </si>
   <si>
@@ -716,9 +611,6 @@
     <t>Molecular epidemiology and diagnostics of crimean-congo hemorrhagic fever in southern russia</t>
   </si>
   <si>
-    <t>Antonov V., Govorukhina M., Karan L., Krasnova E., Maleev V., Obukhov I., Platonov A., Shipulin G., Shvager M., Yazyshina S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Central Research Institute of Epidemiology, Novogireevskaya Str. 3A, Moscow 111123, Russia, Unpublished</t>
   </si>
   <si>
@@ -731,9 +623,6 @@
     <t>Sequencing and analysis of s gene of cchfv</t>
   </si>
   <si>
-    <t>Bouloy M., Feng C., Prehaud C., Tang Q.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Prehaud C.J., Laboratoire des Bunyavirides, Institut Pasteur, 25 rue du Dr Roux, 75724 Paris Cedex 15, FRANCE, Zhonghua Wei Sheng Wu Xue He Mian Yi Xue Za Zhi 19, 461-465 (1999)</t>
   </si>
   <si>
@@ -746,9 +635,6 @@
     <t>Full genome sequencing and phylogenetic characterization of crimean congo hemorrhagic fever virus in spain</t>
   </si>
   <si>
-    <t>Arsuaga M., Fernandez cruz A., Goyanes M., Hernandez L., Negredo A., Perez sautu U., Ramirez de arellano E., Sanchez-seco M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Arbovirus and Imported Viral Diseases Laboratory, National Center of Microbiology, Institute of Health Carlos III, Crta. Majadahonda a Pozuelo Km 2, Madrid 28220, Spain, Unpublished</t>
   </si>
   <si>
@@ -758,9 +644,6 @@
     <t>Assessment of humoral and cellular immune responses elicited by a dna based vaccine targeting crimean congo hemorrhagic fever virus glycoprotein gc in immunocompetent balb/c mouse model</t>
   </si>
   <si>
-    <t>Coleri cihan A., Farzani T., Ozkul A., Sahin E.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biology, Ankara University, Dogol Street Tandogan, Ankara 06100, Turkey, Unpublished</t>
   </si>
   <si>
@@ -770,9 +653,6 @@
     <t>Molecular studies of cchf virus circulating in north india</t>
   </si>
   <si>
-    <t>Chhabra M., Singh P., Venkatesh S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biotechnology division, National Centre for Diseases Control, 22-Sham Nath Marg, Delhi, Delhi 110054, India, Unpublished</t>
   </si>
   <si>
@@ -785,18 +665,12 @@
     <t>Novel segmented rna jingmenvirus group isolated from human</t>
   </si>
   <si>
-    <t>Agafonov A., Gladysheva A., Kotenev E., Loktev V., Sementsova A., Ternovoi V., Volynkina A., Zaykovskaya A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Molecular Virology, State Research Center of Virology and Biotehnology 'Vector', Koltsovo, Russia 630559, Russia, Unpublished</t>
   </si>
   <si>
     <t>MN218693, MN218694, MN218695, MN218696</t>
   </si>
   <si>
-    <t>Kolosov A., Kotenev E., Volynkina A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Laboratory on Natural Focal Infections, Stavropol State Research Anti-Plague Institute, Sovetskaya str. 13-15, Stavropol, Stavropol Region 355035, Russian Federation,  Laboratory on Natural Focal Infections, Stavropol State Research Anti-Plague Institute, Sovetskaya str. 13-15, Stavropol, Stavropol region 355017, Russian Federation</t>
   </si>
   <si>
@@ -806,9 +680,6 @@
     <t>Phylogenetic characterisation of crimean-congo hemorrhagic fever virus detected in african blue ticks feeding on cattle in a ugandan abattoir</t>
   </si>
   <si>
-    <t>Allen D., Frost S., Hewson R., Stubbs S., Waiswa P., Wampande E.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Infectious Disease Epidemiology, London School of Hygiene and Tropical Medicine, Keppel Street, London WC1E 7HT, UK, Preprints (Basel) (2021) In press</t>
   </si>
   <si>
@@ -818,9 +689,6 @@
     <t>The characterization of crimean-congo haemorrhagic fever virus glycoproteins, The crimean-congo haemorrhagic fever virus genetic analysis</t>
   </si>
   <si>
-    <t>Deng F., Hu Z., Li T., Meng W., Sun S., Wang H., Xia Y., Zhang Y., Zhou Z.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Molecular Virology Lab, Wuhan Institution of Virology, CAS, No. 44, Xiaohongshan Middle District, Wuchan District, Wuhan, Hubei 430071, China, Unpublished</t>
   </si>
   <si>
@@ -830,9 +698,6 @@
     <t>A focal outbreak of crimean congo hemorrhagic fever in ahmadabad, india, 2011</t>
   </si>
   <si>
-    <t>Mourya D., Yadav P.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> VR-HCL, National Institute of Virology, Microbial Containment Complex, Sus Road, Pashan, Pune, Maharashtra 411021, India, Unpublished</t>
   </si>
   <si>
@@ -845,9 +710,6 @@
     <t>The characterization of cchfv glycoproteins, The crimean-congo haemorrhagic fever virus genetics and analysis</t>
   </si>
   <si>
-    <t>Deng F., Hu Z., Li T., Meng W., Sun S., Wang H., Zhang Y., Zhou Z.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Molecular Virology and Bioengeneering Research Group, Wuhan Institution of Virology, CAS, Xiaohongshan 44#, Wuhan, Hubei 430071, China, J. Gen. Virol. (2010) In press</t>
   </si>
   <si>
@@ -857,9 +719,6 @@
     <t>GU477492, GU477493, GU477494</t>
   </si>
   <si>
-    <t>Abdulall A., Bendary H., Rasslan F., Zaki A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Microbiology and Immunology, Faculty of Pharmacy (Girls), Al-Azhar University, Dr Abd El-Shennawy, Nasr City, Cairo 11765, Egypt,  Microbiology and Immunology, Faculty of Pharmacy (Girls), Al-Azhar University, Dr Abd El-Shennawy, Nasr city, Cairo 11765, Egypt</t>
   </si>
   <si>
@@ -872,9 +731,6 @@
     <t>Complete genome sequencing of crimean-congo haemorrhagic fever virus (cchfv) directly from clinical samples: a comparative study between targeted enrichment and metagenomic approaches, Recovery of complete genome sequences of crimean-congo haemorrhagic fever virus (cchfv) directly from clinical samples: a comparative study between targeted enrichment and metagenomic approaches, Recovery of complete genome sequences of crimean-congo haemorrhagic fever virus through targeted next-generation sequencing approaches: a comparative study between multiplex tiling pcr and probe hybridization capture</t>
   </si>
   <si>
-    <t>Afrough B., Allen D., D'addiego J., Elaldi N., Fletcher T., Hewson R., Kurosaki Y., Leblebicioglu H., Shah S., Wand N.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Research &amp; Evaluation, UK Health Security Agency, Manor Farm Road, Salisbury, Wiltshire SP4 0JG, United Kingdom, Unpublished</t>
   </si>
   <si>
@@ -884,9 +740,6 @@
     <t>OQ454691, OQ454692, OQ454693, OQ454694, OQ454695, OQ454696, OQ454697, OQ454698, OQ454699, OQ454700, OQ454701, OQ454702, OQ454703, OQ454704, OQ454705, OQ454706, OQ454707, OQ454708, OQ454709, OQ454710, OQ454711, OQ454712, OQ454713, OQ454714, OQ454715, OQ454716, OQ454717, OQ454718, OQ454719, OQ454720, OQ454721, OQ454722, OQ454723, OQ454724, OQ454725, OQ454726, OQ454727, OQ454728, OQ454729, OQ454730, OQ454731, OQ454732, OQ454733, OQ454734, OQ454735, OQ454736, OQ454737, OQ454738, OQ454739, OQ454740, OQ454741, OQ454742, OQ454743, OQ454744, OQ454745, OQ454746, OQ454747, OQ454748, OQ454749, OQ454750, OQ454777, OQ454778, OQ454779, OQ454780, OQ454781, OQ454782, OQ454783, OQ454784, OQ454785, OQ454786, OQ454787, OQ454788, OQ454789, OQ454790, OQ454791, OQ454792, OQ454793, OQ454794, OQ454795, OQ454796, OQ454797, OQ454798, OQ454799, OQ454800, OQ454801, OQ454802, OQ454803, OQ454804, OQ454805, OQ454806, OQ454807, OQ454808, OQ454809, OQ454810, OQ454811, OQ454812, OQ454813, OQ454814, OQ454815, OQ454816, OQ454817, OQ454818, OQ454819, OQ454820, OQ454821, OQ454822, OQ454823, OQ454824, OQ454825, OQ454826, OQ454827, OQ454828, OQ454829, OQ454830, OQ454831, OQ454832, OQ454833, OQ454834, OQ454835, OQ454836, OQ866631, OQ866632, OQ866633, PP735307, PP735308, PP735309, PP735310, PP735311, PP735312, PP735313, PP735314, PP735315, PP735316, PP735317, PP735318, PP735319, PP735320, PP735321, PP735322, PP735323, PP735324, PP735325, PP735326, PP735327, PP735328, PP735329, PP735330, PP735331, PP735332, PP735333, PP735334, PP735335, PP735336, PP735337, PP735338, PP735339, PP735340, PP735341, PP735342, PP735343, PP735344, PP735345, PP735346, PP735347, PP735348, PP735349, PP735350, PP735351, PP735352, PP735353, PP735354, PP735355, PP735356, PP735357, PP735358, PP735359, PP735360, PP735361, PP735362, PP735363, PP735364, PP735365, PP735366, PP735367, PP735368, PP735369, PP735370, PP735371, PP735372, PP735373, PP735374, PP735375</t>
   </si>
   <si>
-    <t>Dai X., Feng C., Hang C., Meng W., Sun S., Wang X., Zhang Y.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The Center for Disease Control and Prevention of Xinjiang Uygur Autonomous Region, Xinjiang Key Lab of Biological Resources and Genetic Engineering, College of Life Science and Technology, Xinjiang University, Urumuqi 830046, P.R. China</t>
   </si>
   <si>
@@ -896,9 +749,6 @@
     <t>Detection of autochthonic virus strain responsible for outbreak of crimean-congo haemorrhagic fever in north macedonia, july to august 2023, Increased clinical vigilance identified additional human cases and genetically diverse isolates of crimean-congo haemorrhagic fever virus in north macedonia</t>
   </si>
   <si>
-    <t>Abraham A., Banovic P., Banyai K., Bogdan I., Cana F., Christova I., Cvetanovska M., Cvetkovikj A., Djadjovski I., Gorfol T., Grozdanovski K., Jakimovski D., Kemenesi G., Kostoulas P., Kuczmog A., Lanszki Z., Meletis E., Mijatovic D., Rangelov G., Simin V., Spasovska K., Tauber Z., Urban P., Zana B.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Szentagothai Research Center, University of Pecs, Ifjusag Utja 20, Pecs, Baranya 7624, Hungary,  Szentagothai Research Center, University of Pecs, Ifjusag utja 20, Pecs, Baranya 7624, Hungary, Unpublished</t>
   </si>
   <si>
@@ -908,18 +758,12 @@
     <t>Molecular epidemiology and phylogeny of crimean-congo haemorrhagic fever (cchf) virus of ixodid ticks in khorasan-e-razavi province of iran, Molecular epidemiology and phylogeny of crimean-congo hemorrhagic fever (cchf) virus of ixodid ticks in khorasan-e-razavi province of iran</t>
   </si>
   <si>
-    <t>Chinikar S., Maghsood H., Nabian S., Shayan P.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Parasitology, Faculty of Veterinary Medicine, University of Tehran, Enghalab Square, Tehran 009821, Iran,  Parasitology, Faculty of Veterinary Medicine, University of Tehran, Enghalab Square, Tehran, Tehran 009821, Iran, Unpublished</t>
   </si>
   <si>
     <t>KP682503, KP742979</t>
   </si>
   <si>
-    <t>Aktas M., Altas K., Ergin S., Gargili A., Midilli K., Ozturk R., Sengoz G., Vatansever Z., Yilmaz G.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Microbiology and Clinical Microbiology, Cerrahpasa Medical Faculty of Istanbul University, Temel Bilimler Binasi, Fatih - Istanbul 34303, Turkey,  Microbiology and Clinical Microbiology, Cerrahpasa Medical Fakulty of Istanbul University, Temel Bilimler Binasi, Fatih - Istanbul 34303, Turkey</t>
   </si>
   <si>
@@ -932,18 +776,12 @@
     <t>Deposition of the nucleotide sequence of s, m, and l segments of cchf virus isolates derived from human blood serum of the patient in the south kazakhstan region, Deposition of the nucleotide sequences of s, m, and l segments of cchf virus obtained by sequencing of samples from ticks of the south kazakhstan region</t>
   </si>
   <si>
-    <t>Atkinson B., Atshabar B., Berezin V., Deryabin P., Hewson R., Nurmakhanov T., Sansyzbaev Y., Shevtsov A., Vilkova A., Yeskhojayev O.</t>
-  </si>
-  <si>
     <t>KX096700, KX096701, KX096702, KX096703, KX096704, KX096705, KX096706, KX129730, KX129731, KX129732, KX129733, KX129734, KX129735, KX129736, KX129737, KX129738, KX129739, KX458183</t>
   </si>
   <si>
     <t>An iran-kerman22 related strain of crimean-congo hemorrhagic fever orthonairovirus, Crimean-ongo haemorrhagic fever among healthcare workers in iran 2000-2018, a report of national reference laboratory</t>
   </si>
   <si>
-    <t>Azad-manjiri S., Azadmanjiri S., Azizizadeh S., Baniasadi V., Fazlalipour M., Fereydouni Z., Ghalejoogh M., Hosseini M., Jalai T., Jalali T., Khakifirouz S., Mohammadi T., Pouriayevali M., Salehi-vaziri M., Tavakoli M., Tavakolirad M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Arboviruses and Viral Hemorrhagic Fevers Department (National Ref. Lab), Pasteur Institute of Iran, No. 69, Pasteur Ave., Tehran 1316943551, Iran,  Arboviruses and Viral Hemorrhagic Fevers Department (National Ref. Lab.), Pasteur Institute of Iran, No. 69, Pasteur Ave., Tehran 1316943551, Iran, Unpublished</t>
   </si>
   <si>
@@ -953,9 +791,6 @@
     <t>An isolate of cchf virus from an iranian fulminant cchf patient, An isolate of cchf virus from an iranian patient in north of iran, Crimean congo hemorrhagic fever in qeshm island, iran, eid al adha (eid qorban) 2017</t>
   </si>
   <si>
-    <t>Azad-manjiri S., Azizizadeh S., Baniasadi V., Fazlalipour M., Fereydouni Z., Ghasemian R., Hosseini M., Jalali T., Jamshidi Y., Khakifirouz S., Mirahmadi R., Mirghiasi M., Mohammadi T., Pouriayevali M., Salehi-vaziri M., Tavakolirad M., Zarandi R.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology, Tehran University of Medical Sciences, No 69, Pasteur Ave, Tehran 0098, Iran,  Virology, Tehran University of Medical Sciences, No. 69 Pasteur Ave., Tehran 0098, Iran,  Virology, Tehran University of Medical Sciences, No. 69, Pasteur Ave., Tehran 0098, Iran, Unpublished</t>
   </si>
   <si>
@@ -965,9 +800,6 @@
     <t>KT899991, KY274404, MG456911</t>
   </si>
   <si>
-    <t>Ajati A., Azati A., Dai X., Feng C., Hang C., Ma J., Meng W., Sun S., Wang X., Xie Y., Zhang F., Zhang Y., Zhu H.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> College of Life Science and Technology, Xinjiang University, 14 Shengli Road, Urumqi, Xinjiang 830046, China,  Xinjiang Center for Disease Control and Prevention, College of Life Science and Technology, Xinjiang University, Urumqi, Xinjiang 830002, China</t>
   </si>
   <si>
@@ -980,9 +812,6 @@
     <t>Cchf genetic variety research</t>
   </si>
   <si>
-    <t>Gao D., Han L., Tang Q., Tao X., Zhao X.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Institute of Epidemiology and Microbiology, Chinese Academy of Preventive Medicine (CAPM), P. O. Box 5 Changping, Beijing 102206, China,  Institute of Epidemiology and Microbiology, Chinese Academy of Preventive Medicine (CAPM), P.O. Box 5 Changping, Beijing 102206, China,  Institute of Epidemiology and Microbiology, Chinese Academy of Preventive Medicine, P. O. Box 5 Changping, Beijing 102206, P.R. China, Unpublished</t>
   </si>
   <si>
@@ -992,9 +821,6 @@
     <t>Molecular characterization of s and m segments of crimean congo hemorrhagic fever virus in turkey</t>
   </si>
   <si>
-    <t>Aydin H., Timurkan M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Virology, Ataturk University, Faculty of Veterinary Medicine, Erzurum 25240, Turkey,  Departmet of Virology, Ataturk University, Faculty of Veterinary Medicine, Erzurum 25240, Turkey, Unpublished</t>
   </si>
   <si>
@@ -1004,9 +830,6 @@
     <t>Crimean-congo virus in stavropol region of russia, 2011, Genetic monitoring of crimean-congo hemorrhagic fever virus in the south of the european part of russia</t>
   </si>
   <si>
-    <t>Kulichenko A., Malyshev B., Volynkina A., Yashina L.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Laboratory of Virology, Stavropol Research Anti-Plague Institute, Sovjetskaya St., 13-15, Stavropol, Stavropol Region 355000, Russian Federation,  PCR Diagnostics, State Research Center of Virology and Biotechnology 'Vector', SRC VB Vector, Koltsovo, Novosibirsk region 630559, Russia, Probl Osobo Opas Infekc 4 (114), 80-85 (2012), Unpublished</t>
   </si>
   <si>
@@ -1019,9 +842,6 @@
     <t>Epidemiological analysis of crimean-congo hemorrhagic fever infection case on the territory of crimean federal district in 2015 caused by a new genetic variants of the virus</t>
   </si>
   <si>
-    <t>Burlachenko A., Kotenev E., Kulichenko A., Lisitskaya Y., Pisarenko S., Popova A., Shaposhnikova L., Volynkina A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Laboratory of Natural-Focal Infections, Stavropol State Research Anti-Plague Institute, Sovetskaya Str. 13-15, Stavropol, Stavropol Region 355017, Russian Federation,  Laboratory of Natural-Focal Infections, Stavropol State Research Anti-Plague Institute, Sovetskaya str. 13-15, Stavropol, Stavropol region 355017, Russian Federation, Zh. Mikrobiol. Epidemiol. Immunobiol. (2016) In press</t>
   </si>
   <si>
@@ -1034,9 +854,6 @@
     <t>The current status of tick populations in istanbul and their biorisks in terms of cchf and public health</t>
   </si>
   <si>
-    <t>Akyildiz G., Gargili keles A., Zarrabi ahrabi S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Faculty of Health Sciences/Basic Health Sciences Department, Marmara University, M.U. Basibuyuk Campus, 9/4/1, Maltepe, Istanbul 34854, Turkey, Unpublished</t>
   </si>
   <si>
@@ -1046,9 +863,6 @@
     <t>Partial sequence of cchf virus l segment</t>
   </si>
   <si>
-    <t>Meissner J., Nichol S., St. jeor S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Microbiology, University of Nevada, Reno, 1664 North Virginia Street, Reno, NV 89557, USA, Unpublished</t>
   </si>
   <si>
@@ -1058,9 +872,6 @@
     <t>AY422208, AY422209</t>
   </si>
   <si>
-    <t>Ali Q., Ammar M., Ansari S., Haider S., Hakim R., Ikram A., Jamal Z., Rehman Z., Salman M., Umair M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Virology, National Institute of Health, Park Road, Chak Shahzad, Islamabad, Islamabad 44000, Pakistan</t>
   </si>
   <si>
@@ -1071,6 +882,195 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Tang Q., Gao D., Han L., Zhao X., Tao X.</t>
+  </si>
+  <si>
+    <t>Platonov A., Karan L., Shipulin G., Maleev V., Yazyshina S., Antonov V., Krasnova E., Govorukhina M., Karan L., Shipulin G., Yazyshina S., Shvager M., Obukhov I.</t>
+  </si>
+  <si>
+    <t>Meissner J., Sato S., Hazlett L., St. jeor S., Nichol S.</t>
+  </si>
+  <si>
+    <t>Prehaud C., Tang Q., Bouloy M., Feng C.</t>
+  </si>
+  <si>
+    <t>Meissner J., St. jeor S., Nichol S.</t>
+  </si>
+  <si>
+    <t>Sun S., Zhang Y., Dai X., Ma J., Zhang F., Meng W., Wang X., Feng C., Hang C., Zhu H., Azati A., Meng W., Wang X., Ajati A., Dai X., Ma J., Zhang F., Zhu H., Feng C., Hang C., Meng W., Wang X., Ajati A., Dai X., Ma J., Zhang F., Zhu H., Feng C., Hang C., Xie Y.</t>
+  </si>
+  <si>
+    <t>Li Q., Nordstrom H., Chinikar S., Plyusnin A., Lundkvist K., Nilsson M.</t>
+  </si>
+  <si>
+    <t>Midilli K., Gargili A., Ergin S., Sengoz G., Gargili A., Vatansever Z., Ergin S., Aktas M., Yilmaz G., Gargili A., Yilmaz G., Sengoz G., Ozturk R., Altas K.</t>
+  </si>
+  <si>
+    <t>Ozdarendeli A., Aydin K., Tonbak S., Koksal I.</t>
+  </si>
+  <si>
+    <t>Feng C., Zhang Y., Sun S., Meng W., Dai X., Sun S., Meng W., Dai X., Sun S., Dai X., Meng W., Hang C., Wang X.</t>
+  </si>
+  <si>
+    <t>Carletti F., Di caro A., Capobianchi M., Castilletti C., Bordi L., Lalle E., Castilletti C., Capobianchi M., Ippolito G., Bordi L., Lalle E., Chiappini R.</t>
+  </si>
+  <si>
+    <t>Xia Y., Zhou Z., Meng W., Hu Z., Wang H., Zhang Y., Sun S., Li T., Hu Z., Wang H., Deng F.</t>
+  </si>
+  <si>
+    <t>Bursali A., Tekin S., Mutluay N., Ekici M., Ozkan M., Dundar E.</t>
+  </si>
+  <si>
+    <t>Zhou Z., Meng W., Deng F., Wang H., Li T., Zhang Y., Sun S., Hu Z.</t>
+  </si>
+  <si>
+    <t>Majidzadeh K., Soleimani M., Ghalyanchi langrodi A., Morovvati A., Soleimani M., Morovvati A., Razmyar J., Langeroudi A.</t>
+  </si>
+  <si>
+    <t>Yadav P., Mourya D.</t>
+  </si>
+  <si>
+    <t>Petrova I., Kononova Y., Chausov E., Shestopalov A., Tishkova F.</t>
+  </si>
+  <si>
+    <t>Volynkina A., Yashina L., Kulichenko A., Malyshev B., Volynkina A.</t>
+  </si>
+  <si>
+    <t>Chinikar S., Shah-hosseini N., Bouzari S., Jalali T., Shokrgozar M., Mostafavi E.</t>
+  </si>
+  <si>
+    <t>Lumley S., Atkinson B., Dowall S., Simpson A., Aarons E., Petridou C., Nijjar M., Glover S., Brooks T., Atkinson B., Hewson R., Staplehurst S.</t>
+  </si>
+  <si>
+    <t>Maghsood H., Nabian S., Chinikar S., Shayan P.</t>
+  </si>
+  <si>
+    <t>Popova A., Volynkina A., Kulichenko A., Lisitskaya Y., Burlachenko A., Lisitskaya Y., Shaposhnikova L., Kotenev E., Pisarenko S.</t>
+  </si>
+  <si>
+    <t>Baniasadi V., Fazlalipour M., Salehi-vaziri M., Ghasemian R., Jalali T., Jamshidi Y., Mohammadi T., Azad-manjiri S., Hosseini M., Azizizadeh S., Mirahmadi R., Khakifirouz S., Pouriayevali M., Jalali T., Mohammadi T., Fereydouni Z., Azad-manjiri S., Hosseini M., Tavakolirad M., Azizizadeh S., Khakifirouz S., Mirghiasi M., Jalali T., Khakifirouz S., Azad-manjiri S., Zarandi R., Salehi-vaziri M., Fazlalipour M.</t>
+  </si>
+  <si>
+    <t>Singh P., Chhabra M., Venkatesh S.</t>
+  </si>
+  <si>
+    <t>Klimentov A., Butenko A., Larichev V., Isaeva O., Gordeychuk I., Gmyl A.</t>
+  </si>
+  <si>
+    <t>Deryabin P., Nurmakhanov T., Atshabar B., Sansyzbaev Y., Berezin V., Yeskhojayev O., Vilkova A., Shevtsov A., Hewson R., Sansyzbaev Y., Atshabar B., Yeskhojayev O., Vilkova A., Shevtsov A., Hewson R., Atkinson B.</t>
+  </si>
+  <si>
+    <t>Bukbuk D., Dowall S., Lewandowski K., Bosworth A., Baba S., Varghese A., Bell A., Atkinson B., Hewson R.</t>
+  </si>
+  <si>
+    <t>Guo R., Shen S., Zhang Y., Shi J., Su Z., Liu D., Liu J., Yang J., Wang Q., Zhang Y., Deng F.</t>
+  </si>
+  <si>
+    <t>Ramirez de arellano E., Hernandez L., Goyanes M., Arsuaga M., Fernandez cruz A., Negredo A., Sanchez-seco M., Perez sautu U.</t>
+  </si>
+  <si>
+    <t>Li Y., Khalafalla A., Paden C., Yusof M., Eltahir Y., Al hammadi Z., Tao Y., Queen K., Al hosani F., Gerber S., Hall A., Al muhairi S., Paden C., Tao Y., Khalafalla A., Yusof M., Eltahir Y., Al hammadi Z., Queen K., Al hosani F., Gerber S., Hall A., Al muhairi S., Tong S.</t>
+  </si>
+  <si>
+    <t>Sahin E., Farzani T., Coleri cihan A., Ozkul A.</t>
+  </si>
+  <si>
+    <t>Atkinson B., Al-abri S., Al-kindi H., Bawakir S., Al-jardani A., Al-abaidani I., Al-mahrooqi S., Al-maani A., Almahrouqi S., Al-rawahi B., Beeching N., Hewson R.</t>
+  </si>
+  <si>
+    <t>Negredo A., Habela M., Ramirez de arellano E., Lasala F., Lopez P., Sarria A., Labiod N., Calero-bernal R., Tenorio A., Estrada-pena A., Sanchez-seco P.</t>
+  </si>
+  <si>
+    <t>Baniasadi V., Qaedi H., Jalali T., Pouriayevali M., Fazlalipour M., Mohammadi T., Fereydouni Z., Azadmanesh K., Salehi-vaziri M.</t>
+  </si>
+  <si>
+    <t>Jalai T., Pouriayevali M., Mohammadi T., Fereydouni Z., Tavakolirad M., Khakifirouz S., Azadmanjiri S., Hosseini M., Ghalejoogh M., Azizizadeh S., Baniasadi V., Fazlalipour M., Jalali T., Mohammadi T., Fereydouni Z., Tavakoli M., Azad-manjiri S., Hosseini M., Ghalejoogh M., Khakifirouz S., Azizizadeh S., Baniasadi V., Fazlalipour M., Salehi-vaziri M.</t>
+  </si>
+  <si>
+    <t>Mancuso E., Polci A., D'alessio S., Toma L., Di luca M., Orsini M., Di domenico M., Marcacci M., Mancini G., Spina F., Goffredo M., Monaco F.</t>
+  </si>
+  <si>
+    <t>Moraga fernandez A., Royo-hernandez L., Habela M., Ruiz fons F., Calero-bernal R., Gortazar C., De la fuente J., Fernandez de mera I.</t>
+  </si>
+  <si>
+    <t>Bower H., Carter D., El karsany M., Alzain M., Gannon B., Mohamed R., Mahmoud I., Eldegail M., Taha R., El halawi A., Osman A., Mohamednour S., Semper A., Atkinson B., Dowall S., Furneaux J., Graham V., Mellors J., Osborne J., Slack G., Brooks T., Hewson R., Beeching N., Whitworth J., Bausch D., Gannon B., Fletcher T., Pullan S.</t>
+  </si>
+  <si>
+    <t>Volynkina A., Kotenev E., Kolosov A.</t>
+  </si>
+  <si>
+    <t>Ternovoi V., Gladysheva A., Sementsova A., Zaykovskaya A., Volynkina A., Kotenev E., Agafonov A., Loktev V.</t>
+  </si>
+  <si>
+    <t>Chiuya T., Masiga D., Bastos A., Fevre E.</t>
+  </si>
+  <si>
+    <t>Akyildiz G., Kar S., Bircan R.</t>
+  </si>
+  <si>
+    <t>Nikiforova M., Shchetinin A., Kuznetsova N., Butenko A., Kozlova A., Larichev V., Vakalova E., Babaeva M., Arjba T., Akishkin V., Azarian A., Nikeshina N., Rubalsky O., Bashkina O., Tkachuk A., Gintsburg A., Kozlova A., Butenko A., Gushchin V.</t>
+  </si>
+  <si>
+    <t>Timurkan M., Aydin H.</t>
+  </si>
+  <si>
+    <t>Bendary H., Rasslan F., Zaki A., Zaki A., Abdulall A.</t>
+  </si>
+  <si>
+    <t>Wampande E., Allen D., Frost S., Waiswa P., Allen D., Hewson R., Frost S., Stubbs S.</t>
+  </si>
+  <si>
+    <t>Balinandi S., Whitmer S., Nyakarahuka L., Tumusiime A., Kyondo J., Mugisha L., Almberg M., Lutwama J., Shoemaker T., Klena J., Mulei S.</t>
+  </si>
+  <si>
+    <t>Umair M., Haider S., Jamal Z., Ammar M., Hakim R., Ali Q., Hakim R., Jamal Z., Jamal Z., Ammar M., Haider S., Ali Q., Hakim R., Jamal Z., Haider S., Ammar M., Ali Q., Hakim R., Rehman Z., Ikram A., Haider S., Ammar M., Ali Q., Hakim R., Salman M., Ansari S.</t>
+  </si>
+  <si>
+    <t>Ashraf S., Love H., Burton C., Carmichael S., Filipe A., Roddy S., Smollett K., Summers S., Tong L., Richards K., Thomson E.</t>
+  </si>
+  <si>
+    <t>Zarrabi ahrabi S., Akyildiz G., Gargili keles A.</t>
+  </si>
+  <si>
+    <t>Moraga-fernandez A., Sanchez-sanchez M., Munoz-hernandez C., Oliva-vidal P., Martinez J., Margalida A., De la fuente J., Fernandez de mera I.</t>
+  </si>
+  <si>
+    <t>Ashraf S., Jerome H., Bugembe D., Ssemwanga D., Byaruhanga T., Kayiwa J., Downing R., Salazar-gonzalez J., Salazar M., Shepherd J., Davis C., Logan N., Sreenu V., Wilkie G., Da silva filipe A., Ssekagiri A., Namuwulya P., Bukenya H., Kigozi B., Mcconnell W., Willett B., Balinandi S., Lutwama J., Kaleebu P., Bwogi J., Thomson E.</t>
+  </si>
+  <si>
+    <t>Abuova G., Pshenichnaya N., Karan L., Berdaliyeva F., Aliyev D., Sadyhova D., Polukchi T., Nurmagambet S.</t>
+  </si>
+  <si>
+    <t>Omoga D., Tchouassi D., Venter M., Ogola E., Osalla J., Kopp A., Slothouwer I., Torto B., Junglen S., Sang R.</t>
+  </si>
+  <si>
+    <t>Addo S., Bentil R., Baako B., Yartey K., Ansah-owusu J., Tawiah-mensah C., Agbodzi B., Kumordjie S., Yeboah C., Asoala V., Dunford J., Larbi J., Baidoo P., Wilson M., Diclaro J.</t>
+  </si>
+  <si>
+    <t>Bentil R., Addo S., Mosore M., Kumordjie S., Yeboah C., Agbodzi B., Behene E., Tagoe J., Baako B., Asoala V., Ampadu R., Mingle D., Nyarko E., Fox A., Letizia A., Diclaro J., Oduro D., Nimo-paintsil S., Harwood J., Dadzie S.</t>
+  </si>
+  <si>
+    <t>D'addiego J., Shah S., Elaldi N., Allen D., Wand N., Afrough B., Fletcher T., Kurosaki Y., Leblebicioglu H., Wand N., Hewson R.</t>
+  </si>
+  <si>
+    <t>Mohammadi-ghalehbin B., Soozangar N., Jeddi F., Mirzanejad-asl H., Molaei S., Habibzadeh S., Peeri doghaheh H., Mohammadshahi J., Spotin A.</t>
+  </si>
+  <si>
+    <t>Nurmakhanov T., Turebekov N., Tukhanova N., Turebekov N., Tukhanova N., Sadovskaya V., Tokmurziyeva G., Shevtsov A.</t>
+  </si>
+  <si>
+    <t>Jakimovski D., Banovic P., Urban P., Gorfol T., Lanszki Z., Tauber Z., Zana B., Banovic P., Zana B., Abraham A., Lanszki Z., Gorfol T., Tauber Z., Banovic P., Zana B., Abraham A., Lanszki Z., Gorfol T., Tauber Z., Kuczmog A., Banyai K., Spasovska K., Grozdanovski K., Rangelov G., Cvetanovska M., Cana F., Banovic P., Simin V., Bogdan I., Mijatovic D., Cvetkovikj A., Djadjovski I., Christova I., Meletis E., Kostoulas P., Zana B., Lanszki Z., Gorfol T., Tauber Z., Kemenesi G.</t>
+  </si>
+  <si>
+    <t>Bosevska G., Emmerich P., Von possel R., Toth E., Osmani D., Cadar D.</t>
+  </si>
+  <si>
+    <t>Marriott A., Berthet F., Nuttall P., Zeller H.</t>
+  </si>
+  <si>
+    <t>Parker M., Glass P., Jennings G., Lofts R., Smith J., Miller M., Glass P., Jennings G., Lofts R., Smith J., Miller M., Spik K., Schoepp R.</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1474,1268 +1474,1268 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2015</v>
+        <v>258</v>
+      </c>
+      <c r="E2" t="s">
+        <v>192</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>2024</v>
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>2019</v>
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>285</v>
+      </c>
+      <c r="D5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2021</v>
+        <v>275</v>
+      </c>
+      <c r="E6" t="s">
+        <v>276</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>33416494</v>
+        <v>277</v>
+      </c>
+      <c r="G6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>2020</v>
+        <v>254</v>
+      </c>
+      <c r="E7" t="s">
+        <v>255</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>2024</v>
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>2019</v>
+        <v>242</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>2024</v>
+        <v>176</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="G11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12">
-        <v>2023</v>
+        <v>234</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>344</v>
+        <v>235</v>
+      </c>
+      <c r="G12">
+        <v>19553586</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>2023</v>
+        <v>107</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>344</v>
+        <v>109</v>
+      </c>
+      <c r="G13">
+        <v>19523314</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14">
-        <v>2013</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15">
-        <v>2024</v>
+        <v>217</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
       <c r="G15" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16">
-        <v>2022</v>
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>295</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>225</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="G17" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18">
-        <v>2023</v>
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19">
-        <v>2005</v>
+        <v>220</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>2013</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21">
-        <v>38446223</v>
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>299</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="G22" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24">
+        <v>25108534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>177</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>2015</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>304</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
         <v>101</v>
       </c>
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G31">
-        <v>27926935</v>
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" t="s">
-        <v>344</v>
+        <v>102</v>
+      </c>
+      <c r="G32">
+        <v>27926935</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>309</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33">
-        <v>19523314</v>
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="G34" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35">
-        <v>33142046</v>
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="G36" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="G37" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>313</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>315</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41">
-        <v>25108534</v>
+        <v>249</v>
+      </c>
+      <c r="G41" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42">
+        <v>31211933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="G43">
-        <v>31211933</v>
+        <v>32738065</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="G44" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="G45" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" t="s">
-        <v>69</v>
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>2019</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G47">
-        <v>32738065</v>
+        <v>210</v>
+      </c>
+      <c r="G47" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G48" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G48">
+        <v>33142046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" t="s">
-        <v>197</v>
+        <v>33</v>
+      </c>
+      <c r="E50">
+        <v>2019</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G51">
-        <v>39238565</v>
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G52">
-        <v>37766297</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="G52" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="G53" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="G54" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
-      </c>
-      <c r="E55" t="s">
-        <v>218</v>
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>2021</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G55" t="s">
-        <v>344</v>
+        <v>23</v>
+      </c>
+      <c r="G55">
+        <v>33416494</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
-      </c>
-      <c r="E56" t="s">
-        <v>223</v>
+        <v>25</v>
+      </c>
+      <c r="E56">
+        <v>2020</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>326</v>
       </c>
       <c r="D57" t="s">
         <v>227</v>
@@ -2746,635 +2746,635 @@
       <c r="F57" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G57" t="s">
-        <v>344</v>
+      <c r="G57">
+        <v>35531170</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>327</v>
       </c>
       <c r="D58" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G58" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="G58">
+        <v>33672497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>329</v>
       </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="G60" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="D61" t="s">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
-      </c>
-      <c r="E62" t="s">
-        <v>74</v>
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <v>2022</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63" t="s">
-        <v>74</v>
+        <v>51</v>
+      </c>
+      <c r="E63">
+        <v>2022</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G64">
-        <v>33672497</v>
+        <v>273</v>
+      </c>
+      <c r="G64" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
         <v>159</v>
       </c>
-      <c r="B65" t="s">
-        <v>259</v>
-      </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="G65" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>272</v>
+        <v>64</v>
       </c>
       <c r="G67" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="E68" t="s">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="G68">
-        <v>35531170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="365" x14ac:dyDescent="0.2">
+        <v>37766297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <v>38446223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" t="s">
+        <v>337</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="365" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>170</v>
       </c>
-      <c r="B69" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" t="s">
-        <v>278</v>
-      </c>
-      <c r="D69" t="s">
-        <v>279</v>
-      </c>
-      <c r="E69" t="s">
-        <v>280</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G69" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>173</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>282</v>
-      </c>
-      <c r="D70" t="s">
-        <v>283</v>
-      </c>
-      <c r="E70" t="s">
-        <v>122</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G70">
-        <v>19553586</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>174</v>
-      </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="G71" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="D72" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" t="s">
-        <v>246</v>
+        <v>56</v>
+      </c>
+      <c r="E72">
+        <v>2023</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>292</v>
+        <v>57</v>
       </c>
       <c r="G72" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" t="s">
+        <v>340</v>
+      </c>
+      <c r="D74" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74">
+        <v>39238565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="C73" t="s">
-        <v>293</v>
-      </c>
-      <c r="D73" t="s">
-        <v>294</v>
-      </c>
-      <c r="E73" t="s">
-        <v>295</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G73" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>182</v>
-      </c>
-      <c r="B74" t="s">
-        <v>297</v>
-      </c>
-      <c r="C74" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" t="s">
-        <v>113</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G74" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>186</v>
-      </c>
-      <c r="B75" t="s">
-        <v>300</v>
-      </c>
       <c r="C75" t="s">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" t="s">
-        <v>88</v>
+        <v>42</v>
+      </c>
+      <c r="E75">
+        <v>2023</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>306</v>
-      </c>
-      <c r="E76" t="s">
-        <v>307</v>
+        <v>39</v>
+      </c>
+      <c r="E76">
+        <v>2023</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>310</v>
-      </c>
-      <c r="E77" t="s">
-        <v>311</v>
+        <v>30</v>
+      </c>
+      <c r="E77">
+        <v>2024</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>312</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>315</v>
-      </c>
-      <c r="E78" t="s">
-        <v>228</v>
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>2024</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>316</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>319</v>
-      </c>
-      <c r="E79" t="s">
-        <v>197</v>
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>2024</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="D80" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>324</v>
+        <v>94</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="G80" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>326</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D81" t="s">
-        <v>328</v>
+        <v>93</v>
       </c>
       <c r="E81" t="s">
-        <v>329</v>
+        <v>94</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="G81" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>332</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>333</v>
-      </c>
-      <c r="E82" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="E82">
+        <v>2024</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>334</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>335</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D83" t="s">
-        <v>337</v>
+        <v>145</v>
       </c>
       <c r="E83" t="s">
-        <v>338</v>
+        <v>146</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>339</v>
+        <v>147</v>
       </c>
       <c r="G83" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="E84" t="s">
-        <v>342</v>
+        <v>184</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="G84" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G84" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G84">
-      <sortCondition ref="A1:A84"/>
+      <sortCondition ref="F1:F84"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
+++ b/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4460EE98-F010-EC4C-A9AA-B7C4DE7F9746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCFDAE8-6109-C742-AE39-F145F1590FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="500" windowWidth="28880" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="334">
   <si>
     <t>RefID</t>
   </si>
@@ -143,15 +143,6 @@
     <t>MN689741, MN689740, MN689739</t>
   </si>
   <si>
-    <t>Peng L., Hirsch S., Kocher G., Mehta M., Holbrook M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IRF, NIH/NIAID, 8200 Research Plaza, Frederick, MD 21702, USA</t>
-  </si>
-  <si>
-    <t>PQ463984, PQ463983, PQ463982</t>
-  </si>
-  <si>
     <t>Picard C., Baize S.</t>
   </si>
   <si>
@@ -575,18 +566,6 @@
     <t>EF432639, EF432640, EF432641, EF432642, EF432643, EF432644, EF432645, EF432646, EF432647, EF432648, EF432649, EF432650, EF432651, EF432652, EF432653</t>
   </si>
   <si>
-    <t>Ap92 sequencing</t>
-  </si>
-  <si>
-    <t>Papa A., Papadopoulou E., Pappa S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MICROBIOLOGY, AUTH, AUTH CAMPUS, 54124, GREECE, Unpublished</t>
-  </si>
-  <si>
-    <t>LT673890</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Michael D. Parker, Virology Divison, USAMRIID, Bldg. 1425 Fort Detrick, Frederick, MD 21702, USA</t>
   </si>
   <si>
@@ -686,15 +665,6 @@
     <t>MW452933, MW452934, MW452935</t>
   </si>
   <si>
-    <t>The characterization of crimean-congo haemorrhagic fever virus glycoproteins, The crimean-congo haemorrhagic fever virus genetic analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Molecular Virology Lab, Wuhan Institution of Virology, CAS, No. 44, Xiaohongshan Middle District, Wuchan District, Wuhan, Hubei 430071, China, Unpublished</t>
-  </si>
-  <si>
-    <t>FJ562093, FJ562094, FJ562095</t>
-  </si>
-  <si>
     <t>A focal outbreak of crimean congo hemorrhagic fever in ahmadabad, india, 2011</t>
   </si>
   <si>
@@ -915,9 +885,6 @@
   </si>
   <si>
     <t>Carletti F., Di caro A., Capobianchi M., Castilletti C., Bordi L., Lalle E., Castilletti C., Capobianchi M., Ippolito G., Bordi L., Lalle E., Chiappini R.</t>
-  </si>
-  <si>
-    <t>Xia Y., Zhou Z., Meng W., Hu Z., Wang H., Zhang Y., Sun S., Li T., Hu Z., Wang H., Deng F.</t>
   </si>
   <si>
     <t>Bursali A., Tekin S., Mutluay N., Ekici M., Ozkan M., Dundar E.</t>
@@ -1440,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C84"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1476,252 +1443,252 @@
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>2005</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="G9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G10" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="G11" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G12">
         <v>19553586</v>
@@ -1729,22 +1696,22 @@
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G13">
         <v>19523314</v>
@@ -1764,1617 +1731,1548 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="G18" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" t="s">
-        <v>188</v>
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>2013</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21">
-        <v>2013</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>194</v>
-      </c>
-      <c r="B22" t="s">
-        <v>263</v>
-      </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" t="s">
-        <v>281</v>
+        <v>133</v>
+      </c>
+      <c r="G23">
+        <v>25108534</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24">
-        <v>25108534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>2015</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
         <v>240</v>
       </c>
-      <c r="E25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="C27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" t="s">
         <v>241</v>
       </c>
-      <c r="G25" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>195</v>
-      </c>
-      <c r="B26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" t="s">
-        <v>303</v>
-      </c>
-      <c r="D26" t="s">
-        <v>268</v>
-      </c>
-      <c r="E26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>2015</v>
+      <c r="E27" t="s">
+        <v>242</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G31" t="s">
-        <v>281</v>
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>27926935</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32">
-        <v>27926935</v>
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="G37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D39" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="G39" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="G40">
+        <v>31211933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G41" t="s">
-        <v>281</v>
+        <v>155</v>
+      </c>
+      <c r="G41">
+        <v>32738065</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42">
-        <v>31211933</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="G42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G43">
-        <v>32738065</v>
+        <v>205</v>
+      </c>
+      <c r="G43" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>2019</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G45" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <v>2019</v>
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="G46">
+        <v>33142046</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>2019</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48">
-        <v>33142046</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
-      </c>
-      <c r="D49" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50">
-        <v>2019</v>
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="G50" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>313</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" t="s">
+        <v>164</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="G51" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="G52" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" t="s">
-        <v>167</v>
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>2021</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G53" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G53">
+        <v>33416494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
-      </c>
-      <c r="E54" t="s">
-        <v>167</v>
+        <v>25</v>
+      </c>
+      <c r="E54">
+        <v>2020</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="G54" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55">
-        <v>2021</v>
+        <v>217</v>
+      </c>
+      <c r="E55" t="s">
+        <v>218</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="G55">
-        <v>33416494</v>
+        <v>35531170</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" t="s">
+        <v>316</v>
+      </c>
+      <c r="D56" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56">
+        <v>33672497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>203</v>
+      </c>
+      <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56">
-        <v>2020</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>166</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C58" t="s">
+        <v>318</v>
+      </c>
+      <c r="D58" t="s">
+        <v>268</v>
+      </c>
+      <c r="E58" t="s">
+        <v>269</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
-        <v>326</v>
-      </c>
-      <c r="D57" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G57">
-        <v>35531170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>158</v>
-      </c>
-      <c r="B58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" t="s">
-        <v>327</v>
-      </c>
-      <c r="D58" t="s">
-        <v>214</v>
-      </c>
-      <c r="E58" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G58">
-        <v>33672497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>67</v>
-      </c>
-      <c r="B59" t="s">
-        <v>84</v>
-      </c>
       <c r="C59" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>278</v>
-      </c>
-      <c r="E60" t="s">
-        <v>279</v>
+        <v>27</v>
+      </c>
+      <c r="E60">
+        <v>2022</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" t="s">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="E61">
+        <v>2022</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62">
-        <v>2022</v>
+        <v>262</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="G62" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>321</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63">
-        <v>2022</v>
+        <v>157</v>
+      </c>
+      <c r="E63" t="s">
+        <v>72</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="G63" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D64" t="s">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="G64" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="G66">
+        <v>37766297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" t="s">
-        <v>281</v>
+        <v>65</v>
+      </c>
+      <c r="G67">
+        <v>38446223</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G68">
-        <v>37766297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="365" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="E69" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69">
-        <v>38446223</v>
+        <v>223</v>
+      </c>
+      <c r="G69" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="E70">
+        <v>2023</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="365" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D71" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="G71" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72">
-        <v>2023</v>
+        <v>167</v>
+      </c>
+      <c r="E72" t="s">
+        <v>64</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" t="s">
-        <v>281</v>
+        <v>168</v>
+      </c>
+      <c r="G72">
+        <v>39238565</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" t="s">
-        <v>67</v>
+        <v>39</v>
+      </c>
+      <c r="E73">
+        <v>2023</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>170</v>
-      </c>
-      <c r="E74" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="E74">
+        <v>2023</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G74">
-        <v>39238565</v>
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E75">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E76">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G76" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>2024</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E78">
-        <v>2024</v>
+        <v>227</v>
+      </c>
+      <c r="E78" t="s">
+        <v>91</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="G78" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79">
-        <v>2024</v>
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>91</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="E80" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="G80" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D81" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="E81" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G81" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>33</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" t="s">
-        <v>36</v>
-      </c>
-      <c r="E82">
-        <v>2024</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>116</v>
-      </c>
-      <c r="B83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" t="s">
-        <v>343</v>
-      </c>
-      <c r="D83" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" t="s">
-        <v>146</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G83" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>344</v>
-      </c>
-      <c r="D84" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" t="s">
-        <v>184</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G84" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G84" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G84">
-      <sortCondition ref="F1:F84"/>
+  <autoFilter ref="A1:G81" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
+      <sortCondition ref="F1:F81"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
+++ b/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCFDAE8-6109-C742-AE39-F145F1590FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEEECD-2E88-7F43-9257-6FE6F810B836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="500" windowWidth="28880" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="500" windowWidth="19760" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,18 +68,12 @@
     <t xml:space="preserve"> Virology, Public Health Institution of Turkey, Saglik Mahallesi Prof. Dr. Nusret Fisek Cad, Ankara, Sihhiye 06100, Turkey</t>
   </si>
   <si>
-    <t>KT266848, KT266847, KT266846, KT266845, KT266844, KT266843, KT266842, KT266841, KT266840, KT266839, KT266838, KT266837, KT266836, KT266835, KT266834, KT266833, KT266832</t>
-  </si>
-  <si>
     <t>Baz-flores S., Herrero G., Cuadrado-matias R., Moraga fernandez A., Peralbo-moreno A., Fernandez de mera I., Ruiz-fons F.</t>
   </si>
   <si>
     <t xml:space="preserve"> Sanidad Animal, Instituto de Investigacion en Recursos Cinegeticos, Ronda de Toledo s/n, Ciudad Real, Ciudad Real 13003, Espana</t>
   </si>
   <si>
-    <t>PP449386, PP449385, PP449384, PP449383, PP449382</t>
-  </si>
-  <si>
     <t>Chitimia-dobler L.</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>bioRxiv (2021) In press</t>
   </si>
   <si>
-    <t>MW058030, MW058029, MW058028</t>
-  </si>
-  <si>
     <t>Hawman D., Sturdevant D., Martens C., Babian K., Feldmann H.</t>
   </si>
   <si>
@@ -122,45 +113,30 @@
     <t xml:space="preserve"> Key Laboratory of Etiology and Epidemiology of Emerging Infectious Diseases, Shandong First Medical University and Shandong Academy of Medical Sciences, Yingshengdonglu No. 2, Taian 271000, China</t>
   </si>
   <si>
-    <t>ON500502, ON500501, ON500500</t>
-  </si>
-  <si>
     <t>Karan L., Perekopskaya N., Morozkin E., Roev G.</t>
   </si>
   <si>
     <t xml:space="preserve"> Department of Molecular Diagnostic and Epidemiology, Central Research Institute of Epidemiology, Novogireevskaya 3A, Moscow 111123, Russia</t>
   </si>
   <si>
-    <t>PP116320, PP116319, PP116318</t>
-  </si>
-  <si>
     <t>Negredo A., Vazquez A., Hernandez L., Sanchez-seco M.</t>
   </si>
   <si>
     <t xml:space="preserve"> Arbovirus and Imported Viral diseases, National Center of Microbiology, Institute of Health Carlos III, Ctra. Majadahonda-Pozuelo, km2, Majadahonda, Madrid 28220, Spain</t>
   </si>
   <si>
-    <t>MN689741, MN689740, MN689739</t>
-  </si>
-  <si>
     <t>Picard C., Baize S.</t>
   </si>
   <si>
     <t xml:space="preserve"> Virology, Institut Pasteur, 21 Av Tony Garnier, Lyon 69365, France</t>
   </si>
   <si>
-    <t>PP067088, PP067087, PP067086, PP067085, PP067084, PP067083, PP067082, PP067081, PP067080, PP067079, PP067078, PP067077, PP067076, PP067075, PP067074, PP067073, PP067072, PP067071, PP067070, PP067069, PP067068, PP067067, PP067066, PP067065, PP067064, PP067063, PP067062, PP067061, PP067060, PP067059, PP067058, PP067057, PP067056, PP067055, PP067054, PP067053, PP067052, PP067051, PP067050, PP067049, PP067048, PP067047</t>
-  </si>
-  <si>
     <t>Piorkowski G., Kiwan P., Masse S., Ayhan N., Charrel R., De lamballerie X., Falchi A.</t>
   </si>
   <si>
     <t xml:space="preserve"> UMR190 Unite des Virus Emergents U1207, IHU mediterranee, 19-21 boulevard Jean Moulin, Marseille 13005, France</t>
   </si>
   <si>
-    <t>PP025040, PP025039, PP025038</t>
-  </si>
-  <si>
     <t>Rangunwala A., Burt F., Swanepoel R., Janusz P.</t>
   </si>
   <si>
@@ -176,9 +152,6 @@
     <t xml:space="preserve"> Labaratory of Veterinary Internal Medicine, Seoul National University, 1 GwanakGwanak-ro, GwanakGwanak-gu, Seoul, Seoul 08840, Republic of Korea</t>
   </si>
   <si>
-    <t>PP334110, PP334109, PP334108, PP334107, PP334106, PP334105, PP334104, PP334103, PP334102, PP334101</t>
-  </si>
-  <si>
     <t>Sado yousseu F.</t>
   </si>
   <si>
@@ -200,18 +173,12 @@
     <t xml:space="preserve"> Faculty of Life Science and Technology, Kunming University of Science and Technology, 727 Jingming South Road, Kunming, Yunnan 650000, China</t>
   </si>
   <si>
-    <t>OQ633004, OQ633003, OQ633002</t>
-  </si>
-  <si>
     <t>Zhang Y., Sun S., Meng W., Muhetar R., Wang X., Ma J., Zhang F., Hu J., Dai X., Feng C., Hang C., Azati R., Tai X.</t>
   </si>
   <si>
     <t xml:space="preserve"> Xinjiang Center for Disease Control and Prevention, Key Lab of Biological Resources and Genetic Engineering of Xinjiang, College of Life Science and Technology, Xinjiang University 830046, P.R. China</t>
   </si>
   <si>
-    <t>DQ301505, DQ301504, DQ301503, DQ301502</t>
-  </si>
-  <si>
     <t>Genotypes of the congo-crimean hemorrhagic fever virus occurring in the turkestan region</t>
   </si>
   <si>
@@ -1038,6 +1005,39 @@
   </si>
   <si>
     <t>Parker M., Glass P., Jennings G., Lofts R., Smith J., Miller M., Glass P., Jennings G., Lofts R., Smith J., Miller M., Spik K., Schoepp R.</t>
+  </si>
+  <si>
+    <t>KT266832, KT266833, KT266834, KT266835, KT266836, KT266837, KT266838, KT266839, KT266840, KT266841, KT266842, KT266843, KT266844, KT266845, KT266846, KT266847, KT266848</t>
+  </si>
+  <si>
+    <t>PP449382, PP449383, PP449384, PP449385, PP449386</t>
+  </si>
+  <si>
+    <t>MW058028, MW058029, MW058030</t>
+  </si>
+  <si>
+    <t>ON500500, ON500501, ON500502</t>
+  </si>
+  <si>
+    <t>PP116318, PP116319, PP116320</t>
+  </si>
+  <si>
+    <t>MN689739, MN689740, MN689741</t>
+  </si>
+  <si>
+    <t>PP067047, PP067048, PP067049, PP067050, PP067051, PP067052, PP067053, PP067054, PP067055, PP067056, PP067057, PP067058, PP067059, PP067060, PP067061, PP067062, PP067063, PP067064, PP067065, PP067066, PP067067, PP067068, PP067069, PP067070, PP067071, PP067072, PP067073, PP067074, PP067075, PP067076, PP067077, PP067078, PP067079, PP067080, PP067081, PP067082, PP067083, PP067084, PP067085, PP067086, PP067087, PP067088</t>
+  </si>
+  <si>
+    <t>PP025038, PP025039, PP025040</t>
+  </si>
+  <si>
+    <t>PP334101, PP334102, PP334103, PP334104, PP334105, PP334106, PP334107, PP334108, PP334109, PP334110</t>
+  </si>
+  <si>
+    <t>OQ633002, OQ633003, OQ633004</t>
+  </si>
+  <si>
+    <t>DQ301502, DQ301503, DQ301504, DQ301505</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1441,1838 +1441,1838 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>249</v>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2015</v>
+      </c>
+      <c r="F2" t="s">
+        <v>323</v>
       </c>
       <c r="G2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>186</v>
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2024</v>
+      </c>
+      <c r="F3" t="s">
+        <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>148</v>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2019</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>190</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="F6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6">
+        <v>33416494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>246</v>
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="s">
+        <v>325</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2005</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>2022</v>
+      </c>
+      <c r="F8" t="s">
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>122</v>
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2024</v>
+      </c>
+      <c r="F9" t="s">
+        <v>327</v>
       </c>
       <c r="G9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>234</v>
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>2019</v>
+      </c>
+      <c r="F10" t="s">
+        <v>328</v>
       </c>
       <c r="G10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>175</v>
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11" t="s">
+        <v>329</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12">
-        <v>19553586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13">
-        <v>19523314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>2013</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>2024</v>
+      </c>
+      <c r="F14" t="s">
+        <v>331</v>
       </c>
       <c r="G14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>103</v>
+        <v>39</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D16" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>216</v>
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>328</v>
       </c>
       <c r="G16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>137</v>
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17" t="s">
+        <v>332</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>212</v>
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>2005</v>
+      </c>
+      <c r="F18" t="s">
+        <v>333</v>
       </c>
       <c r="G18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>182</v>
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>38446223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20">
-        <v>2013</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>190</v>
-      </c>
-      <c r="B21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" t="s">
-        <v>255</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>130</v>
-      </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23">
-        <v>25108534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>291</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>231</v>
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
       </c>
       <c r="G24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30">
+        <v>27926935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>191</v>
-      </c>
-      <c r="B25" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" t="s">
-        <v>259</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32">
+        <v>19523314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>2015</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>150</v>
-      </c>
-      <c r="B28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>105</v>
-      </c>
-      <c r="B29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>295</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>178</v>
-      </c>
-      <c r="B30" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" t="s">
-        <v>296</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="G33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
         <v>99</v>
-      </c>
-      <c r="G31">
-        <v>27926935</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>145</v>
-      </c>
-      <c r="B33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>109</v>
-      </c>
-      <c r="B34" t="s">
-        <v>126</v>
       </c>
       <c r="C34" t="s">
         <v>300</v>
       </c>
       <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34">
+        <v>33142046</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40">
+        <v>25108534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
         <v>127</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" t="s">
         <v>128</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" t="s">
-        <v>301</v>
-      </c>
-      <c r="D35" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>302</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>122</v>
-      </c>
-      <c r="B37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" t="s">
-        <v>303</v>
-      </c>
-      <c r="D37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" t="s">
-        <v>304</v>
-      </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>182</v>
-      </c>
-      <c r="B39" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" t="s">
-        <v>305</v>
-      </c>
-      <c r="D39" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" t="s">
-        <v>306</v>
-      </c>
-      <c r="D40" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40">
-        <v>31211933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>118</v>
-      </c>
-      <c r="B41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" t="s">
-        <v>307</v>
-      </c>
-      <c r="D41" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41">
-        <v>32738065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s">
-        <v>308</v>
-      </c>
-      <c r="D42" t="s">
-        <v>94</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42">
+        <v>31211933</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46">
+        <v>32738065</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>119</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>292</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" t="s">
         <v>154</v>
       </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>309</v>
-      </c>
-      <c r="D43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44">
-        <v>2019</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>152</v>
-      </c>
-      <c r="B45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C45" t="s">
-        <v>310</v>
-      </c>
-      <c r="D45" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G45" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" t="s">
-        <v>311</v>
-      </c>
-      <c r="D46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46">
-        <v>33142046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>56</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>312</v>
-      </c>
-      <c r="D47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>27</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48">
-        <v>2019</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>38</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G49" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G50" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50">
+        <v>39238565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
         <v>313</v>
       </c>
       <c r="D51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" t="s">
+        <v>160</v>
+      </c>
+      <c r="G51">
+        <v>37766297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" t="s">
         <v>163</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F52" t="s">
         <v>164</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>322</v>
+      </c>
+      <c r="D53" t="s">
         <v>165</v>
       </c>
-      <c r="G51" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="112" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="E53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F53" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>142</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" t="s">
+        <v>169</v>
+      </c>
+      <c r="E54" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>143</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" t="s">
+        <v>175</v>
+      </c>
+      <c r="G55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" t="s">
+        <v>264</v>
+      </c>
+      <c r="D56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>145</v>
+      </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" t="s">
+        <v>185</v>
+      </c>
+      <c r="G58" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" t="s">
         <v>188</v>
       </c>
-      <c r="B52" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" t="s">
-        <v>314</v>
-      </c>
-      <c r="D52" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G52" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53">
-        <v>2021</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53">
-        <v>33416494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54">
-        <v>2020</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>162</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>315</v>
-      </c>
-      <c r="D55" t="s">
-        <v>217</v>
-      </c>
-      <c r="E55" t="s">
-        <v>218</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G55">
-        <v>35531170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>155</v>
-      </c>
-      <c r="B56" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" t="s">
-        <v>316</v>
-      </c>
-      <c r="D56" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G56">
-        <v>33672497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="96" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>66</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
-        <v>317</v>
-      </c>
-      <c r="D57" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G57" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="128" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>203</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>318</v>
-      </c>
-      <c r="D58" t="s">
-        <v>268</v>
-      </c>
-      <c r="E58" t="s">
-        <v>269</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G58" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>62</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>319</v>
-      </c>
-      <c r="D59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>76</v>
+      <c r="F59" t="s">
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60">
-        <v>2022</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>28</v>
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>192</v>
       </c>
       <c r="G60" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>47</v>
+        <v>298</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61">
-        <v>2022</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>49</v>
+        <v>193</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>194</v>
       </c>
       <c r="G61" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B62" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F62" t="s">
+        <v>197</v>
+      </c>
+      <c r="G62">
+        <v>33672497</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>158</v>
       </c>
-      <c r="G63" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>61</v>
-      </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>73</v>
+        <v>204</v>
+      </c>
+      <c r="F64" t="s">
+        <v>205</v>
       </c>
       <c r="G64" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="E65" t="s">
-        <v>60</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="F65" t="s">
+        <v>208</v>
+      </c>
+      <c r="G65">
+        <v>35531170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>169</v>
       </c>
-      <c r="C66" t="s">
-        <v>324</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" t="s">
+        <v>94</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+      <c r="G67">
+        <v>19553586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>170</v>
       </c>
-      <c r="E66" t="s">
-        <v>64</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G66">
-        <v>37766297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>54</v>
-      </c>
-      <c r="B67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" t="s">
-        <v>325</v>
-      </c>
-      <c r="D67" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G67">
-        <v>38446223</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>69</v>
-      </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="365" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" t="s">
+        <v>280</v>
+      </c>
+      <c r="D69" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" t="s">
         <v>220</v>
       </c>
-      <c r="C69" t="s">
-        <v>327</v>
-      </c>
-      <c r="D69" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="G69" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70">
-        <v>2023</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>54</v>
+        <v>221</v>
+      </c>
+      <c r="E70" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" t="s">
+        <v>223</v>
       </c>
       <c r="G70" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>151</v>
+        <v>87</v>
+      </c>
+      <c r="F71" t="s">
+        <v>225</v>
       </c>
       <c r="G71" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C72" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G72">
-        <v>39238565</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F72" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73">
-        <v>2023</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>40</v>
+        <v>230</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" t="s">
+        <v>232</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74">
-        <v>2023</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>37</v>
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" t="s">
+        <v>235</v>
       </c>
       <c r="G74" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
-      </c>
-      <c r="E75">
-        <v>2024</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>31</v>
+        <v>237</v>
+      </c>
+      <c r="E75" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" t="s">
+        <v>238</v>
       </c>
       <c r="G75" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76">
-        <v>2024</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>46</v>
+        <v>240</v>
+      </c>
+      <c r="E76" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" t="s">
+        <v>241</v>
       </c>
       <c r="G76" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77">
-        <v>2024</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="E77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" t="s">
+        <v>245</v>
       </c>
       <c r="G77" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
+      </c>
+      <c r="F78" t="s">
+        <v>249</v>
       </c>
       <c r="G78" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="E79" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>92</v>
+        <v>49</v>
+      </c>
+      <c r="F79" t="s">
+        <v>252</v>
       </c>
       <c r="G79" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="C80" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>144</v>
+        <v>255</v>
+      </c>
+      <c r="F80" t="s">
+        <v>256</v>
       </c>
       <c r="G80" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>178</v>
+        <v>258</v>
+      </c>
+      <c r="F81" t="s">
+        <v>259</v>
       </c>
       <c r="G81" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G81" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
-      <sortCondition ref="F1:F81"/>
+      <sortCondition ref="A1:A81"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
+++ b/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DEEECD-2E88-7F43-9257-6FE6F810B836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD29CB-EEAB-2D41-8DAD-D0B4A8FD8664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="500" windowWidth="19760" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="328">
   <si>
     <t>RefID</t>
   </si>
@@ -92,21 +92,6 @@
     <t>FJ472634</t>
   </si>
   <si>
-    <t>Immunocompetent Mouse Model for Crimean-Congo Hemorrhagic Fever Virus</t>
-  </si>
-  <si>
-    <t>Hawman D., Meade-white K., Leventhal S., Feldmann F., Okumura A., Smith B., Scott D., Feldmann H.</t>
-  </si>
-  <si>
-    <t>bioRxiv (2021) In press</t>
-  </si>
-  <si>
-    <t>Hawman D., Sturdevant D., Martens C., Babian K., Feldmann H.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laboratory of Virology, Rocky Mountain Labs NIH/NIAD, 903 S 4th St, Hamilton, MT 59840, USA</t>
-  </si>
-  <si>
     <t>Ji J., Zhou H., Cui M., Guo M., Ma Z., Li L., Hu T., Shi W.</t>
   </si>
   <si>
@@ -1011,9 +996,6 @@
   </si>
   <si>
     <t>PP449382, PP449383, PP449384, PP449385, PP449386</t>
-  </si>
-  <si>
-    <t>MW058028, MW058029, MW058030</t>
   </si>
   <si>
     <t>ON500500, ON500501, ON500502</t>
@@ -1407,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A7" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1458,10 +1440,10 @@
         <v>2015</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1481,10 +1463,10 @@
         <v>2024</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1507,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1524,150 +1506,150 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G6">
-        <v>33416494</v>
+        <v>320</v>
+      </c>
+      <c r="G6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
       <c r="E10">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>2013</v>
+      </c>
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>2023</v>
-      </c>
-      <c r="F11" t="s">
-        <v>329</v>
-      </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1679,18 +1661,18 @@
         <v>32</v>
       </c>
       <c r="E12">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1702,41 +1684,35 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14">
-        <v>2024</v>
-      </c>
       <c r="F14" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1748,1531 +1724,1491 @@
         <v>39</v>
       </c>
       <c r="E15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
+      <c r="E16">
+        <v>2005</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="E17">
-        <v>2023</v>
-      </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>2005</v>
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" t="s">
-        <v>260</v>
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>38446223</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
       <c r="G19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20">
-        <v>38446223</v>
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
         <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
         <v>52</v>
       </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" t="s">
-        <v>260</v>
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>27926935</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G30">
-        <v>27926935</v>
+        <v>19523314</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G32">
-        <v>19523314</v>
+        <v>33142046</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G33" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34">
-        <v>33142046</v>
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" t="s">
-        <v>260</v>
+        <v>117</v>
+      </c>
+      <c r="G38">
+        <v>25108534</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G40">
-        <v>25108534</v>
+        <v>31211933</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42">
-        <v>31211933</v>
+        <v>132</v>
+      </c>
+      <c r="G42" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" t="s">
-        <v>260</v>
+        <v>139</v>
+      </c>
+      <c r="G44">
+        <v>32738065</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46">
-        <v>32738065</v>
+        <v>145</v>
+      </c>
+      <c r="G46" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" t="s">
-        <v>260</v>
+        <v>152</v>
+      </c>
+      <c r="G48">
+        <v>39238565</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D49" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" t="s">
-        <v>260</v>
+        <v>155</v>
+      </c>
+      <c r="G49">
+        <v>37766297</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50">
-        <v>39238565</v>
+        <v>159</v>
+      </c>
+      <c r="G50" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="F51" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51">
-        <v>37766297</v>
+        <v>162</v>
+      </c>
+      <c r="G51" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F52" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="D56" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E56" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="F57" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G57" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E59" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
         <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
         <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
         <v>191</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
         <v>192</v>
       </c>
-      <c r="G60" t="s">
-        <v>260</v>
+      <c r="G60">
+        <v>33672497</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G61" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
-      </c>
-      <c r="G62">
-        <v>33672497</v>
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>201</v>
-      </c>
-      <c r="G63" t="s">
-        <v>260</v>
+        <v>203</v>
+      </c>
+      <c r="G63">
+        <v>35531170</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="F65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G65">
-        <v>35531170</v>
+        <v>19553586</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
         <v>212</v>
       </c>
       <c r="G66" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>214</v>
-      </c>
-      <c r="G67">
-        <v>19553586</v>
+        <v>215</v>
+      </c>
+      <c r="G67" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s">
         <v>216</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
         <v>280</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="F69" t="s">
         <v>220</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E70" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
         <v>223</v>
       </c>
       <c r="G70" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
         <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="F71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G71" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E72" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="F72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E75" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="F75" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G75" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="F76" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F78" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="F79" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>200</v>
-      </c>
-      <c r="B80" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80" t="s">
-        <v>265</v>
-      </c>
-      <c r="D80" t="s">
-        <v>254</v>
-      </c>
-      <c r="E80" t="s">
-        <v>255</v>
-      </c>
-      <c r="F80" t="s">
-        <v>256</v>
-      </c>
-      <c r="G80" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>203</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>307</v>
-      </c>
-      <c r="D81" t="s">
-        <v>257</v>
-      </c>
-      <c r="E81" t="s">
-        <v>258</v>
-      </c>
-      <c r="F81" t="s">
-        <v>259</v>
-      </c>
-      <c r="G81" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G81" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
-      <sortCondition ref="A1:A81"/>
+  <autoFilter ref="A1:G79" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G79">
+      <sortCondition ref="A1:A79"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
+++ b/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD29CB-EEAB-2D41-8DAD-D0B4A8FD8664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C81CAF-3E4C-0944-9573-48618258345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="500" windowWidth="19760" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="1440" windowWidth="19760" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="328">
   <si>
     <t>RefID</t>
   </si>
@@ -1076,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1086,6 +1086,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,13 +1394,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A6:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="83.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1425,68 +1429,62 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2015</v>
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>2024</v>
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G3" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>2019</v>
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
         <v>255</v>
@@ -1494,16 +1492,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
         <v>255</v>
@@ -1511,22 +1515,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>2022</v>
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="G6" t="s">
         <v>255</v>
@@ -1534,22 +1538,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2024</v>
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>230</v>
       </c>
       <c r="G7" t="s">
         <v>255</v>
@@ -1557,732 +1561,666 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2023</v>
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G9" t="s">
-        <v>255</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>2023</v>
+        <v>216</v>
+      </c>
+      <c r="E10" t="s">
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
-      </c>
-      <c r="G10" t="s">
-        <v>255</v>
+        <v>218</v>
+      </c>
+      <c r="G10" s="4">
+        <v>19515251</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11">
-        <v>2013</v>
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12">
-        <v>2024</v>
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G12" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>2022</v>
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15">
-        <v>2023</v>
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>326</v>
-      </c>
-      <c r="G15" t="s">
-        <v>255</v>
+        <v>87</v>
+      </c>
+      <c r="G15" s="4">
+        <v>22119389</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16">
-        <v>2005</v>
+        <v>198</v>
+      </c>
+      <c r="E16" t="s">
+        <v>199</v>
       </c>
       <c r="F16" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>255</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18">
-        <v>38446223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" t="s">
-        <v>255</v>
+        <v>166</v>
+      </c>
+      <c r="G19" s="4">
+        <v>24364143</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>2013</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
-        <v>255</v>
+        <v>240</v>
+      </c>
+      <c r="G21">
+        <v>25845138</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>255</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>255</v>
+        <v>117</v>
+      </c>
+      <c r="G23" s="4">
+        <v>25108534</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>183</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" t="s">
-        <v>255</v>
+        <v>215</v>
+      </c>
+      <c r="G24" s="4">
+        <v>33954213</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" t="s">
-        <v>255</v>
+        <v>244</v>
+      </c>
+      <c r="G25" s="4">
+        <v>30380211</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>2015</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28">
-        <v>27926935</v>
+        <v>184</v>
+      </c>
+      <c r="G28" s="4">
+        <v>27523802</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30">
-        <v>19523314</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" t="s">
-        <v>255</v>
+      <c r="G31" s="4">
+        <v>27926935</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32">
-        <v>33142046</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="C33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" t="s">
-        <v>255</v>
+        <v>64</v>
+      </c>
+      <c r="G36" s="4">
+        <v>31022170</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38">
-        <v>25108534</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2304,911 +2242,830 @@
       <c r="F40" t="s">
         <v>124</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>31211933</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" t="s">
-        <v>255</v>
+        <v>139</v>
+      </c>
+      <c r="G41" s="4">
+        <v>32738065</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
-      </c>
-      <c r="G43" t="s">
-        <v>255</v>
+        <v>189</v>
+      </c>
+      <c r="G43" s="4">
+        <v>35551538</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" t="s">
-        <v>138</v>
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>2019</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44">
-        <v>32738065</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G45" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" t="s">
-        <v>255</v>
+        <v>96</v>
+      </c>
+      <c r="G46" s="4">
+        <v>33142046</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" t="s">
-        <v>255</v>
+        <v>53</v>
+      </c>
+      <c r="G47" s="4">
+        <v>33388553</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>2019</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48">
-        <v>39238565</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49">
-        <v>37766297</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" t="s">
-        <v>255</v>
+        <v>109</v>
+      </c>
+      <c r="G50" s="4">
+        <v>34763306</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G51" t="s">
-        <v>255</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F52" t="s">
-        <v>166</v>
-      </c>
-      <c r="G52" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" t="s">
-        <v>255</v>
+        <v>203</v>
+      </c>
+      <c r="G53" s="4">
+        <v>35531170</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
-      </c>
-      <c r="G54" t="s">
-        <v>255</v>
+        <v>192</v>
+      </c>
+      <c r="G54" s="4">
+        <v>33672497</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
-      </c>
-      <c r="G55" t="s">
-        <v>255</v>
+        <v>67</v>
+      </c>
+      <c r="G55" s="4">
+        <v>34662872</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D56" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="F56" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="G56" s="4">
+        <v>36815488</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
-        <v>184</v>
-      </c>
-      <c r="G57" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
-      </c>
-      <c r="E58" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>2022</v>
       </c>
       <c r="F58" t="s">
-        <v>187</v>
-      </c>
-      <c r="G58" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>188</v>
-      </c>
-      <c r="E59" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="E59">
+        <v>2022</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
-      </c>
-      <c r="G59" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60">
-        <v>33672497</v>
+        <v>247</v>
+      </c>
+      <c r="G60" s="4">
+        <v>37766297</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>196</v>
-      </c>
-      <c r="G61" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
-        <v>199</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63">
-        <v>35531170</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>207</v>
-      </c>
-      <c r="G64" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65">
-        <v>19553586</v>
+        <v>49</v>
+      </c>
+      <c r="G65" s="4">
+        <v>38446223</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>212</v>
-      </c>
-      <c r="G66" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
-      </c>
-      <c r="G67" t="s">
-        <v>255</v>
+        <v>207</v>
+      </c>
+      <c r="G67" s="4">
+        <v>37879367</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" t="s">
-        <v>217</v>
+        <v>39</v>
+      </c>
+      <c r="E68">
+        <v>2023</v>
       </c>
       <c r="F68" t="s">
-        <v>218</v>
-      </c>
-      <c r="G68" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="D69" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>220</v>
-      </c>
-      <c r="G69" t="s">
-        <v>255</v>
+        <v>135</v>
+      </c>
+      <c r="G69" s="4">
+        <v>40045205</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="D70" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
-        <v>223</v>
-      </c>
-      <c r="G70" t="s">
-        <v>255</v>
+        <v>152</v>
+      </c>
+      <c r="G70" s="4">
+        <v>39238565</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
-      </c>
-      <c r="E71" t="s">
-        <v>226</v>
+        <v>27</v>
+      </c>
+      <c r="E71">
+        <v>2023</v>
       </c>
       <c r="F71" t="s">
-        <v>227</v>
-      </c>
-      <c r="G71" t="s">
-        <v>255</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
-      </c>
-      <c r="E72" t="s">
-        <v>229</v>
+        <v>25</v>
+      </c>
+      <c r="E72">
+        <v>2023</v>
       </c>
       <c r="F72" t="s">
-        <v>230</v>
-      </c>
-      <c r="G72" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
-      </c>
-      <c r="E73" t="s">
-        <v>169</v>
+        <v>21</v>
+      </c>
+      <c r="E73">
+        <v>2024</v>
       </c>
       <c r="F73" t="s">
-        <v>233</v>
-      </c>
-      <c r="G73" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
-      </c>
-      <c r="E74" t="s">
-        <v>148</v>
+        <v>32</v>
+      </c>
+      <c r="E74">
+        <v>2024</v>
       </c>
       <c r="F74" t="s">
-        <v>236</v>
-      </c>
-      <c r="G74" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
-      </c>
-      <c r="E75" t="s">
-        <v>239</v>
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>2024</v>
       </c>
       <c r="F75" t="s">
-        <v>240</v>
-      </c>
-      <c r="G75" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>244</v>
-      </c>
-      <c r="G76" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>247</v>
-      </c>
-      <c r="G77" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="F78" t="s">
-        <v>251</v>
-      </c>
-      <c r="G78" t="s">
-        <v>255</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D79" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
-        <v>254</v>
-      </c>
-      <c r="G79" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G79" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G79">
-      <sortCondition ref="A1:A79"/>
+      <sortCondition ref="F1:F79"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
+++ b/Pubmed/CCHF/CCHF_pubmed_search_checked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C81CAF-3E4C-0944-9573-48618258345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D42066E-2B51-EC4C-9946-D160ABA52E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="1440" windowWidth="19760" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16960" yWindow="1440" windowWidth="19760" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2921,6 +2921,9 @@
       <c r="F72" t="s">
         <v>323</v>
       </c>
+      <c r="G72" s="4">
+        <v>38333936</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -3000,6 +3003,9 @@
       </c>
       <c r="F76" t="s">
         <v>212</v>
+      </c>
+      <c r="G76" s="4">
+        <v>39885822</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
